--- a/protected/data/dmd_data/Drug-Type-Mappings.xlsx
+++ b/protected/data/dmd_data/Drug-Type-Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\A+ PROJECT OPENEYES\MEDICATIONS MANAGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3601FCC-56A0-4E95-B0BD-792A9CE1DBA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2DC853-41DB-41EE-8523-BD38B52498E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="20850" windowWidth="38565" windowHeight="20835" tabRatio="857" firstSheet="40" activeTab="44" xr2:uid="{239332B0-502E-49FE-8EA2-75D020103C09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="857" firstSheet="6" activeTab="25" xr2:uid="{239332B0-502E-49FE-8EA2-75D020103C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Analgesic" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="Mydriatic" sheetId="25" r:id="rId23"/>
     <sheet name="Non-steroidal Anti-inflammatory" sheetId="26" r:id="rId24"/>
     <sheet name="Steroid" sheetId="27" r:id="rId25"/>
-    <sheet name="Sulfonamides" sheetId="48" r:id="rId26"/>
+    <sheet name="Sulphonamides" sheetId="48" r:id="rId26"/>
     <sheet name="Tear Film Substitute" sheetId="11" r:id="rId27"/>
     <sheet name="Vasoconstrictor" sheetId="28" r:id="rId28"/>
     <sheet name="Viscosurgical" sheetId="29" r:id="rId29"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="795">
   <si>
     <t>Term</t>
   </si>
@@ -2448,12 +2448,6 @@
   </si>
   <si>
     <t>36408711000001107</t>
-  </si>
-  <si>
-    <t>Sulfamethoxazole</t>
-  </si>
-  <si>
-    <t>363528007</t>
   </si>
   <si>
     <t>Sulphonamides</t>
@@ -2870,19 +2864,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCA7993-61D2-400D-90BC-EC69B4BB7BC7}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="29.15234375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.3828125" customWidth="1"/>
-    <col min="4" max="4" width="21.15234375" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2893,7 +2887,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2904,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2915,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2926,7 +2920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2937,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2948,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2959,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2970,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2981,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2992,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3003,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3014,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3022,7 +3016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3033,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -3044,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -3055,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3066,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3077,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -3088,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -3099,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -3110,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3121,7 +3115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -3132,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -3143,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3154,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -3165,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3176,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3187,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3198,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3209,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -3220,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -3231,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -3242,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -3253,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3264,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -3275,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3286,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -3297,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -3308,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -3319,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -3330,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -3341,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -3352,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -3363,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -3374,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -3385,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -3396,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -3407,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -3418,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -3429,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -3440,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -3465,15 +3459,15 @@
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.15234375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="24" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.15234375" style="6"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3478,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>485</v>
       </c>
@@ -3495,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>487</v>
       </c>
@@ -3506,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>489</v>
       </c>
@@ -3517,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>491</v>
       </c>
@@ -3528,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>493</v>
       </c>
@@ -3539,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>495</v>
       </c>
@@ -3550,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>496</v>
       </c>
@@ -3561,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>498</v>
       </c>
@@ -3586,13 +3580,13 @@
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.15234375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3603,7 +3597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>127</v>
       </c>
@@ -3614,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>113</v>
       </c>
@@ -3625,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>501</v>
       </c>
@@ -3636,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>502</v>
       </c>
@@ -3647,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>504</v>
       </c>
@@ -3658,67 +3652,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
     </row>
   </sheetData>
@@ -3734,13 +3728,13 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" customWidth="1"/>
-    <col min="2" max="2" width="19.15234375" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3745,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>316</v>
       </c>
@@ -3762,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>318</v>
       </c>
@@ -3773,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>320</v>
       </c>
@@ -3784,151 +3778,151 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
     </row>
   </sheetData>
@@ -3945,13 +3939,13 @@
       <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +3956,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>196</v>
       </c>
@@ -3973,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>197</v>
       </c>
@@ -3984,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>198</v>
       </c>
@@ -3995,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>199</v>
       </c>
@@ -4006,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>200</v>
       </c>
@@ -4017,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>201</v>
       </c>
@@ -4028,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>202</v>
       </c>
@@ -4039,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -4050,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -4061,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -4072,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>229</v>
       </c>
@@ -4083,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -4094,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>232</v>
       </c>
@@ -4105,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>233</v>
       </c>
@@ -4116,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>234</v>
       </c>
@@ -4127,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>235</v>
       </c>
@@ -4138,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>236</v>
       </c>
@@ -4149,19 +4143,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
   </sheetData>
@@ -4177,14 +4171,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.69140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.69140625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="1" max="1" width="30.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4195,7 +4189,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>506</v>
       </c>
@@ -4219,13 +4213,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.69140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4236,7 +4230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -4247,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>759</v>
       </c>
@@ -4258,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -4269,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>761</v>
       </c>
@@ -4280,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>778</v>
       </c>
@@ -4291,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>769</v>
       </c>
@@ -4302,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>771</v>
       </c>
@@ -4313,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>765</v>
       </c>
@@ -4324,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>773</v>
       </c>
@@ -4335,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>767</v>
       </c>
@@ -4346,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>780</v>
       </c>
@@ -4357,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -4368,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -4379,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>782</v>
       </c>
@@ -4390,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>784</v>
       </c>
@@ -4401,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>776</v>
       </c>
@@ -4412,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4440,13 +4434,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3046875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4451,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>193</v>
       </c>
@@ -4468,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>194</v>
       </c>
@@ -4479,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -4490,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -4501,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>190</v>
       </c>
@@ -4512,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>191</v>
       </c>
@@ -4523,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -4534,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>192</v>
       </c>
@@ -4545,73 +4539,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
     </row>
   </sheetData>
@@ -4630,14 +4624,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4648,7 +4642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>508</v>
       </c>
@@ -4659,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>510</v>
       </c>
@@ -4670,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>512</v>
       </c>
@@ -4681,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>514</v>
       </c>
@@ -4692,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>515</v>
       </c>
@@ -4703,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>517</v>
       </c>
@@ -4727,13 +4721,13 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.84375" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4744,7 +4738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>322</v>
       </c>
@@ -4755,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>324</v>
       </c>
@@ -4766,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>325</v>
       </c>
@@ -4777,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>327</v>
       </c>
@@ -4788,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>329</v>
       </c>
@@ -4799,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>331</v>
       </c>
@@ -4810,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>333</v>
       </c>
@@ -4821,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>335</v>
       </c>
@@ -4832,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>337</v>
       </c>
@@ -4843,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>339</v>
       </c>
@@ -4854,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>341</v>
       </c>
@@ -4865,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>343</v>
       </c>
@@ -4876,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>345</v>
       </c>
@@ -4887,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>347</v>
       </c>
@@ -4898,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>349</v>
       </c>
@@ -4909,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>351</v>
       </c>
@@ -4920,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>353</v>
       </c>
@@ -4931,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>355</v>
       </c>
@@ -4942,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>357</v>
       </c>
@@ -4953,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>359</v>
       </c>
@@ -4964,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>361</v>
       </c>
@@ -4975,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>362</v>
       </c>
@@ -4986,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>364</v>
       </c>
@@ -4997,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>366</v>
       </c>
@@ -5008,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>368</v>
       </c>
@@ -5019,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>369</v>
       </c>
@@ -5030,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>371</v>
       </c>
@@ -5041,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>558</v>
       </c>
@@ -5050,79 +5044,79 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
     </row>
   </sheetData>
@@ -5138,14 +5132,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.84375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.3046875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="1" max="1" width="26.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5150,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>519</v>
       </c>
@@ -5167,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>521</v>
       </c>
@@ -5178,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>523</v>
       </c>
@@ -5189,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>525</v>
       </c>
@@ -5200,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>527</v>
       </c>
@@ -5211,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>529</v>
       </c>
@@ -5222,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>531</v>
       </c>
@@ -5243,16 +5237,16 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.3828125" customWidth="1"/>
-    <col min="2" max="2" width="19.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5263,7 +5257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5274,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5285,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5296,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5307,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5318,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5329,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5340,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5351,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5362,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -5373,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -5384,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -5395,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5406,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5417,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -5428,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -5439,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -5450,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -5461,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -5472,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -5483,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -5494,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -5505,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -5516,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -5527,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -5538,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -5549,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -5560,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -5571,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -5582,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -5593,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -5617,14 +5611,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.15234375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.15234375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="1" max="1" width="30.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5635,7 +5629,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>533</v>
       </c>
@@ -5646,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>535</v>
       </c>
@@ -5657,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>537</v>
       </c>
@@ -5668,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>539</v>
       </c>
@@ -5679,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>541</v>
       </c>
@@ -5690,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>190</v>
       </c>
@@ -5701,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>544</v>
       </c>
@@ -5712,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>546</v>
       </c>
@@ -5723,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>548</v>
       </c>
@@ -5734,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>551</v>
       </c>
@@ -5758,12 +5752,12 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.53515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5774,7 +5768,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -5782,7 +5776,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -5790,7 +5784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -5798,7 +5792,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -5806,7 +5800,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -5814,7 +5808,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>704</v>
       </c>
@@ -5822,7 +5816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>92</v>
       </c>
@@ -5830,7 +5824,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>705</v>
       </c>
@@ -5838,7 +5832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>706</v>
       </c>
@@ -5860,14 +5854,14 @@
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.53515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5878,7 +5872,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>552</v>
       </c>
@@ -5889,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>359</v>
       </c>
@@ -5900,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>554</v>
       </c>
@@ -5911,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>556</v>
       </c>
@@ -5936,14 +5930,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.69140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5954,7 +5948,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>559</v>
       </c>
@@ -5965,7 +5959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>561</v>
       </c>
@@ -5976,7 +5970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>563</v>
       </c>
@@ -5987,7 +5981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>565</v>
       </c>
@@ -5998,7 +5992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>567</v>
       </c>
@@ -6009,7 +6003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>569</v>
       </c>
@@ -6020,7 +6014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>571</v>
       </c>
@@ -6031,7 +6025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>573</v>
       </c>
@@ -6042,7 +6036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>575</v>
       </c>
@@ -6053,7 +6047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>577</v>
       </c>
@@ -6064,7 +6058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>579</v>
       </c>
@@ -6075,7 +6069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>581</v>
       </c>
@@ -6086,7 +6080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>583</v>
       </c>
@@ -6097,7 +6091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>585</v>
       </c>
@@ -6108,7 +6102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>587</v>
       </c>
@@ -6119,7 +6113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>589</v>
       </c>
@@ -6130,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>591</v>
       </c>
@@ -6141,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>593</v>
       </c>
@@ -6152,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>595</v>
       </c>
@@ -6163,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>597</v>
       </c>
@@ -6174,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>599</v>
       </c>
@@ -6185,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>601</v>
       </c>
@@ -6196,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>603</v>
       </c>
@@ -6207,7 +6201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>605</v>
       </c>
@@ -6218,7 +6212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>607</v>
       </c>
@@ -6243,14 +6237,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.3828125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.15234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="1" max="1" width="30.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6261,7 +6255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>609</v>
       </c>
@@ -6272,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>611</v>
       </c>
@@ -6283,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>613</v>
       </c>
@@ -6294,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>615</v>
       </c>
@@ -6305,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>617</v>
       </c>
@@ -6316,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
@@ -6327,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -6338,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -6349,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>621</v>
       </c>
@@ -6360,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>623</v>
       </c>
@@ -6371,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>625</v>
       </c>
@@ -6382,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -6406,15 +6400,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.15234375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.15234375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.15234375" style="6"/>
+    <col min="2" max="2" width="24.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6425,7 +6419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>628</v>
       </c>
@@ -6436,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>630</v>
       </c>
@@ -6447,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>632</v>
       </c>
@@ -6458,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>634</v>
       </c>
@@ -6469,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>636</v>
       </c>
@@ -6480,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>638</v>
       </c>
@@ -6491,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>640</v>
       </c>
@@ -6502,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>642</v>
       </c>
@@ -6513,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>644</v>
       </c>
@@ -6524,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>646</v>
       </c>
@@ -6535,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>648</v>
       </c>
@@ -6546,7 +6540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>650</v>
       </c>
@@ -6557,7 +6551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>652</v>
       </c>
@@ -6568,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>654</v>
       </c>
@@ -6579,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>656</v>
       </c>
@@ -6590,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>658</v>
       </c>
@@ -6601,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>660</v>
       </c>
@@ -6612,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>662</v>
       </c>
@@ -6631,19 +6625,19 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10121D64-E7C6-4CE1-84F9-0D1E2A3D933D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.69140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6654,7 +6648,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -6662,17 +6656,6 @@
         <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>791</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6690,13 +6673,13 @@
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.84375" customWidth="1"/>
+    <col min="1" max="1" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6707,7 +6690,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>237</v>
       </c>
@@ -6718,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>238</v>
       </c>
@@ -6729,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>240</v>
       </c>
@@ -6740,7 +6723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>241</v>
       </c>
@@ -6751,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>243</v>
       </c>
@@ -6762,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>244</v>
       </c>
@@ -6773,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -6784,7 +6767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
@@ -6795,7 +6778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>249</v>
       </c>
@@ -6806,7 +6789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>251</v>
       </c>
@@ -6817,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>252</v>
       </c>
@@ -6828,7 +6811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>254</v>
       </c>
@@ -6839,7 +6822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>256</v>
       </c>
@@ -6850,7 +6833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -6861,7 +6844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -6872,7 +6855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>262</v>
       </c>
@@ -6883,7 +6866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>264</v>
       </c>
@@ -6894,7 +6877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -6905,7 +6888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>268</v>
       </c>
@@ -6916,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>271</v>
       </c>
@@ -6927,7 +6910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>272</v>
       </c>
@@ -6938,7 +6921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>274</v>
       </c>
@@ -6949,7 +6932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -6960,7 +6943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>278</v>
       </c>
@@ -6971,7 +6954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>281</v>
       </c>
@@ -6982,7 +6965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>282</v>
       </c>
@@ -6993,7 +6976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>284</v>
       </c>
@@ -7004,7 +6987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>286</v>
       </c>
@@ -7015,7 +6998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>288</v>
       </c>
@@ -7026,7 +7009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -7037,7 +7020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>292</v>
       </c>
@@ -7048,7 +7031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>294</v>
       </c>
@@ -7059,7 +7042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>297</v>
       </c>
@@ -7070,7 +7053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>298</v>
       </c>
@@ -7081,7 +7064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>301</v>
       </c>
@@ -7092,7 +7075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>302</v>
       </c>
@@ -7103,7 +7086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>304</v>
       </c>
@@ -7114,7 +7097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>306</v>
       </c>
@@ -7125,7 +7108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>309</v>
       </c>
@@ -7136,7 +7119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>310</v>
       </c>
@@ -7147,7 +7130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>312</v>
       </c>
@@ -7158,7 +7141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>315</v>
       </c>
@@ -7169,7 +7152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
     </row>
   </sheetData>
@@ -7185,14 +7168,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="2" max="2" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7203,7 +7186,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>664</v>
       </c>
@@ -7214,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>666</v>
       </c>
@@ -7225,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>668</v>
       </c>
@@ -7249,14 +7232,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3046875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7267,7 +7250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>670</v>
       </c>
@@ -7278,7 +7261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>672</v>
       </c>
@@ -7302,13 +7285,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.84375" customWidth="1"/>
-    <col min="2" max="2" width="28.69140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7319,7 +7302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -7330,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -7341,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -7352,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -7376,14 +7359,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.53515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.3046875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="1" max="1" width="28.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7394,7 +7377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>674</v>
       </c>
@@ -7405,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>675</v>
       </c>
@@ -7416,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>677</v>
       </c>
@@ -7427,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>679</v>
       </c>
@@ -7438,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>681</v>
       </c>
@@ -7449,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>683</v>
       </c>
@@ -7460,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>685</v>
       </c>
@@ -7471,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>687</v>
       </c>
@@ -7495,12 +7478,12 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7511,7 +7494,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>689</v>
       </c>
@@ -7519,7 +7502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>690</v>
       </c>
@@ -7527,7 +7510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>691</v>
       </c>
@@ -7535,7 +7518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>696</v>
       </c>
@@ -7543,7 +7526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>692</v>
       </c>
@@ -7551,7 +7534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>693</v>
       </c>
@@ -7559,7 +7542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>694</v>
       </c>
@@ -7567,7 +7550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>695</v>
       </c>
@@ -7588,13 +7571,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7605,7 +7588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -7629,13 +7612,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7646,7 +7629,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -7670,14 +7653,14 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7688,7 +7671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -7699,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>333</v>
       </c>
@@ -7710,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -7734,14 +7717,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7752,7 +7735,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>710</v>
       </c>
@@ -7773,15 +7756,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7792,7 +7775,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>763</v>
       </c>
@@ -7813,14 +7796,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7831,7 +7814,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -7842,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>512</v>
       </c>
@@ -7853,7 +7836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>514</v>
       </c>
@@ -7877,14 +7860,14 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7895,7 +7878,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>504</v>
       </c>
@@ -7906,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>713</v>
       </c>
@@ -7917,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>715</v>
       </c>
@@ -7928,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>717</v>
       </c>
@@ -7939,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>719</v>
       </c>
@@ -7950,7 +7933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>721</v>
       </c>
@@ -7961,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>723</v>
       </c>
@@ -7972,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>725</v>
       </c>
@@ -7996,12 +7979,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8012,7 +7995,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>707</v>
       </c>
@@ -8031,16 +8014,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.69140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8051,7 +8034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -8062,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -8073,7 +8056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -8084,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>174</v>
       </c>
@@ -8095,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -8106,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>171</v>
       </c>
@@ -8117,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -8128,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>120</v>
       </c>
@@ -8139,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>763</v>
       </c>
@@ -8147,7 +8130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -8158,7 +8141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -8169,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -8180,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -8191,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -8202,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -8213,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -8224,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>132</v>
       </c>
@@ -8235,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -8246,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -8257,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -8268,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>136</v>
       </c>
@@ -8279,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -8290,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -8301,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>139</v>
       </c>
@@ -8312,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>141</v>
       </c>
@@ -8323,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -8334,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -8345,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -8356,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -8367,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -8378,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -8389,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -8400,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -8411,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>150</v>
       </c>
@@ -8422,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>160</v>
       </c>
@@ -8433,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>152</v>
       </c>
@@ -8444,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>161</v>
       </c>
@@ -8455,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>169</v>
       </c>
@@ -8466,7 +8449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>210</v>
       </c>
@@ -8477,7 +8460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>180</v>
       </c>
@@ -8488,7 +8471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
@@ -8499,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -8510,7 +8493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>163</v>
       </c>
@@ -8521,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>164</v>
       </c>
@@ -8532,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>165</v>
       </c>
@@ -8543,7 +8526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
@@ -8554,7 +8537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>167</v>
       </c>
@@ -8565,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>168</v>
       </c>
@@ -8576,7 +8559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>154</v>
       </c>
@@ -8587,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>155</v>
       </c>
@@ -8598,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>170</v>
       </c>
@@ -8609,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>156</v>
       </c>
@@ -8620,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>172</v>
       </c>
@@ -8631,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>173</v>
       </c>
@@ -8642,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>175</v>
       </c>
@@ -8653,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -8664,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>177</v>
       </c>
@@ -8675,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -8686,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -8697,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>157</v>
       </c>
@@ -8708,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>181</v>
       </c>
@@ -8719,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>158</v>
       </c>
@@ -8730,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>182</v>
       </c>
@@ -8741,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>183</v>
       </c>
@@ -8752,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>184</v>
       </c>
@@ -8763,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>159</v>
       </c>
@@ -8774,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>185</v>
       </c>
@@ -8785,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>186</v>
       </c>
@@ -8796,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -8825,14 +8808,14 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8843,7 +8826,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -8854,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>728</v>
       </c>
@@ -8865,7 +8848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -8876,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -8887,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -8898,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>732</v>
       </c>
@@ -8909,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -8920,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>735</v>
       </c>
@@ -8931,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -8942,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -8953,7 +8936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -8964,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -8975,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -8986,7 +8969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>740</v>
       </c>
@@ -8997,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>742</v>
       </c>
@@ -9008,7 +8991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>744</v>
       </c>
@@ -9019,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>746</v>
       </c>
@@ -9030,7 +9013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -9041,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -9052,7 +9035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -9063,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>749</v>
       </c>
@@ -9074,7 +9057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>751</v>
       </c>
@@ -9099,14 +9082,14 @@
       <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9117,7 +9100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -9128,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -9139,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -9150,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -9161,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -9172,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>174</v>
       </c>
@@ -9196,14 +9179,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9214,7 +9197,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>788</v>
       </c>
@@ -9225,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>789</v>
       </c>
@@ -9246,15 +9229,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9265,9 +9248,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -9286,14 +9269,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9304,12 +9287,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -9324,18 +9307,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCE8F63-B951-470B-A6A0-F59BE8BCB360}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.4609375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9346,12 +9329,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -9370,12 +9353,12 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9386,7 +9369,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -9407,13 +9390,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.53515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9424,7 +9407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -9435,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -9446,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -9457,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -9468,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -9479,7 +9462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -9490,7 +9473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -9501,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -9512,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -9523,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -9534,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -9545,7 +9528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -9556,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -9567,7 +9550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -9578,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -9589,7 +9572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -9600,7 +9583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>111</v>
       </c>
@@ -9611,7 +9594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>108</v>
       </c>
@@ -9622,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
@@ -9650,13 +9633,13 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69140625" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9667,7 +9650,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>373</v>
       </c>
@@ -9678,7 +9661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>375</v>
       </c>
@@ -9689,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>377</v>
       </c>
@@ -9700,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>379</v>
       </c>
@@ -9711,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>381</v>
       </c>
@@ -9722,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>383</v>
       </c>
@@ -9733,7 +9716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>385</v>
       </c>
@@ -9744,7 +9727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>386</v>
       </c>
@@ -9755,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>388</v>
       </c>
@@ -9766,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>390</v>
       </c>
@@ -9777,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>392</v>
       </c>
@@ -9788,7 +9771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>394</v>
       </c>
@@ -9799,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>396</v>
       </c>
@@ -9810,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>398</v>
       </c>
@@ -9821,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>400</v>
       </c>
@@ -9832,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>402</v>
       </c>
@@ -9843,7 +9826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>404</v>
       </c>
@@ -9854,7 +9837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>406</v>
       </c>
@@ -9865,7 +9848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>408</v>
       </c>
@@ -9876,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>410</v>
       </c>
@@ -9887,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>413</v>
       </c>
@@ -9898,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>414</v>
       </c>
@@ -9909,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>416</v>
       </c>
@@ -9920,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>418</v>
       </c>
@@ -9931,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>420</v>
       </c>
@@ -9942,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>422</v>
       </c>
@@ -9953,232 +9936,232 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -10197,14 +10180,14 @@
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.3046875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.84375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="1" max="1" width="26.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10215,7 +10198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>424</v>
       </c>
@@ -10226,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>426</v>
       </c>
@@ -10237,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>428</v>
       </c>
@@ -10248,7 +10231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>430</v>
       </c>
@@ -10259,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>432</v>
       </c>
@@ -10283,14 +10266,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.3046875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.15234375" style="6"/>
+    <col min="1" max="1" width="53.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10301,7 +10284,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>434</v>
       </c>
@@ -10312,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>436</v>
       </c>
@@ -10323,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>438</v>
       </c>
@@ -10334,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>440</v>
       </c>
@@ -10345,7 +10328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>442</v>
       </c>
@@ -10356,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>444</v>
       </c>
@@ -10367,7 +10350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>446</v>
       </c>
@@ -10378,7 +10361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>449</v>
       </c>
@@ -10389,7 +10372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>450</v>
       </c>
@@ -10400,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>452</v>
       </c>
@@ -10411,7 +10394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>454</v>
       </c>
@@ -10422,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>456</v>
       </c>
@@ -10433,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
@@ -10444,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>459</v>
       </c>
@@ -10455,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>461</v>
       </c>
@@ -10466,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>463</v>
       </c>
@@ -10477,7 +10460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>465</v>
       </c>
@@ -10488,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>467</v>
       </c>
@@ -10499,7 +10482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>469</v>
       </c>
@@ -10510,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>471</v>
       </c>
@@ -10521,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>473</v>
       </c>
@@ -10532,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>475</v>
       </c>
@@ -10543,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>477</v>
       </c>
@@ -10554,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>479</v>
       </c>
@@ -10565,7 +10548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>481</v>
       </c>
@@ -10576,7 +10559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>483</v>
       </c>

--- a/protected/data/dmd_data/Drug-Type-Mappings.xlsx
+++ b/protected/data/dmd_data/Drug-Type-Mappings.xlsx
@@ -8,56 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c58bff20204d3898/Documents/docker-compose/MM/dmd_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_611EE3B2B6AEC4E91FAFF6C24585CFD48B53695D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55C6BD87-7413-4F32-8CAD-30DDE2A6561E}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_611EE3B2B6AEC4E91FAFF6C24585CFD48B53695D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1884293B-2C79-480C-ACA6-99C33C7B34BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="750" firstSheet="16" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-opioid Analgesic" sheetId="1" r:id="rId1"/>
-    <sheet name="Analgesic" sheetId="2" r:id="rId2"/>
-    <sheet name="Antiamoebic" sheetId="3" r:id="rId3"/>
-    <sheet name="Cephalosporins" sheetId="4" r:id="rId4"/>
-    <sheet name="Antibacterial" sheetId="5" r:id="rId5"/>
-    <sheet name="Antibiotic" sheetId="6" r:id="rId6"/>
-    <sheet name="Anticoagulant" sheetId="7" r:id="rId7"/>
-    <sheet name="Antidiabetic" sheetId="8" r:id="rId8"/>
-    <sheet name="Antiemetic" sheetId="9" r:id="rId9"/>
-    <sheet name="Antifungal" sheetId="10" r:id="rId10"/>
-    <sheet name="Antihistamine" sheetId="11" r:id="rId11"/>
-    <sheet name="Antiseptic" sheetId="12" r:id="rId12"/>
-    <sheet name="AntiVEGF" sheetId="13" r:id="rId13"/>
-    <sheet name="Antiviral" sheetId="14" r:id="rId14"/>
-    <sheet name="Contact Lens Solution" sheetId="15" r:id="rId15"/>
-    <sheet name="Cytotoxic" sheetId="16" r:id="rId16"/>
-    <sheet name="Dye" sheetId="17" r:id="rId17"/>
-    <sheet name="Glaucoma" sheetId="18" r:id="rId18"/>
-    <sheet name="Hypnotic" sheetId="19" r:id="rId19"/>
-    <sheet name="Immunosuppresive" sheetId="20" r:id="rId20"/>
-    <sheet name="Ophthalmic" sheetId="21" r:id="rId21"/>
-    <sheet name="Miotic" sheetId="22" r:id="rId22"/>
-    <sheet name="Mydriatic" sheetId="23" r:id="rId23"/>
-    <sheet name="Non-steroidal Anti-inflammatory" sheetId="24" r:id="rId24"/>
-    <sheet name="Steroid" sheetId="25" r:id="rId25"/>
-    <sheet name="Sulphonamides" sheetId="26" r:id="rId26"/>
-    <sheet name="Tear Film Substitute" sheetId="27" r:id="rId27"/>
-    <sheet name="Vasoconstrictor" sheetId="28" r:id="rId28"/>
-    <sheet name="Viscosurgical" sheetId="29" r:id="rId29"/>
-    <sheet name="Alphablocker" sheetId="30" r:id="rId30"/>
-    <sheet name="medication_management" sheetId="31" r:id="rId31"/>
-    <sheet name="Allergy_Acetazolamide" sheetId="32" r:id="rId32"/>
-    <sheet name="Allergy_Atropine" sheetId="33" r:id="rId33"/>
-    <sheet name="Allergy_Brimonidine" sheetId="34" r:id="rId34"/>
-    <sheet name="Allergy_Carbamezapine" sheetId="35" r:id="rId35"/>
-    <sheet name="Allergy_Cephalosporins" sheetId="36" r:id="rId36"/>
-    <sheet name="Allergy_Fluorescein" sheetId="37" r:id="rId37"/>
-    <sheet name="Allergy_Iodine" sheetId="38" r:id="rId38"/>
-    <sheet name="Allergy_NSAIDs" sheetId="39" r:id="rId39"/>
-    <sheet name="Allergy_Opiates" sheetId="40" r:id="rId40"/>
-    <sheet name="Allergy_Penicillin" sheetId="41" r:id="rId41"/>
-    <sheet name="Allergy_Phenytoin" sheetId="42" r:id="rId42"/>
-    <sheet name="Allergy_Sulphonamides" sheetId="43" r:id="rId43"/>
-    <sheet name="Allergy_Suxamethonium" sheetId="44" r:id="rId44"/>
-    <sheet name="Allergy_Tetracycline" sheetId="45" r:id="rId45"/>
+    <sheet name="Simple Analgesics" sheetId="46" r:id="rId2"/>
+    <sheet name="Analgesic" sheetId="2" r:id="rId3"/>
+    <sheet name="Antiamoebic" sheetId="3" r:id="rId4"/>
+    <sheet name="Cephalosporins" sheetId="4" r:id="rId5"/>
+    <sheet name="Antibacterial" sheetId="5" r:id="rId6"/>
+    <sheet name="Antibiotic" sheetId="6" r:id="rId7"/>
+    <sheet name="Anticoagulant" sheetId="7" r:id="rId8"/>
+    <sheet name="Antidiabetic" sheetId="8" r:id="rId9"/>
+    <sheet name="Antiemetic" sheetId="9" r:id="rId10"/>
+    <sheet name="Antifungal" sheetId="10" r:id="rId11"/>
+    <sheet name="Antihistamine" sheetId="11" r:id="rId12"/>
+    <sheet name="Antiseptic" sheetId="12" r:id="rId13"/>
+    <sheet name="AntiVEGF" sheetId="13" r:id="rId14"/>
+    <sheet name="Antiviral" sheetId="14" r:id="rId15"/>
+    <sheet name="Contact Lens Solution" sheetId="15" r:id="rId16"/>
+    <sheet name="Cytotoxic" sheetId="16" r:id="rId17"/>
+    <sheet name="Dye" sheetId="17" r:id="rId18"/>
+    <sheet name="Glaucoma" sheetId="18" r:id="rId19"/>
+    <sheet name="Hypnotic" sheetId="19" r:id="rId20"/>
+    <sheet name="Immunosuppresive" sheetId="20" r:id="rId21"/>
+    <sheet name="Ophthalmic" sheetId="21" r:id="rId22"/>
+    <sheet name="Miotic" sheetId="22" r:id="rId23"/>
+    <sheet name="Mydriatic" sheetId="23" r:id="rId24"/>
+    <sheet name="Non-steroidal Anti-inflammatory" sheetId="24" r:id="rId25"/>
+    <sheet name="Steroid" sheetId="25" r:id="rId26"/>
+    <sheet name="Sulphonamides" sheetId="26" r:id="rId27"/>
+    <sheet name="Tear Film Substitute" sheetId="27" r:id="rId28"/>
+    <sheet name="Vasoconstrictor" sheetId="28" r:id="rId29"/>
+    <sheet name="Viscosurgical" sheetId="29" r:id="rId30"/>
+    <sheet name="Alphablocker" sheetId="30" r:id="rId31"/>
+    <sheet name="medication_management" sheetId="31" r:id="rId32"/>
+    <sheet name="Allergy_Acetazolamide" sheetId="32" r:id="rId33"/>
+    <sheet name="Allergy_Atropine" sheetId="33" r:id="rId34"/>
+    <sheet name="Allergy_Brimonidine" sheetId="34" r:id="rId35"/>
+    <sheet name="Allergy_Carbamezapine" sheetId="35" r:id="rId36"/>
+    <sheet name="Allergy_Cephalosporins" sheetId="36" r:id="rId37"/>
+    <sheet name="Allergy_Fluorescein" sheetId="37" r:id="rId38"/>
+    <sheet name="Allergy_Iodine" sheetId="38" r:id="rId39"/>
+    <sheet name="Allergy_NSAIDs" sheetId="39" r:id="rId40"/>
+    <sheet name="Allergy_Opiates" sheetId="40" r:id="rId41"/>
+    <sheet name="Allergy_Penicillin" sheetId="41" r:id="rId42"/>
+    <sheet name="Allergy_Phenytoin" sheetId="42" r:id="rId43"/>
+    <sheet name="Allergy_Sulphonamides" sheetId="43" r:id="rId44"/>
+    <sheet name="Allergy_Suxamethonium" sheetId="44" r:id="rId45"/>
+    <sheet name="Allergy_Tetracycline" sheetId="45" r:id="rId46"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="786">
   <si>
     <t>Term</t>
   </si>
@@ -1775,12 +1776,6 @@
     <t>11847009</t>
   </si>
   <si>
-    <t>Misoprostol + Naproxen</t>
-  </si>
-  <si>
-    <t>346577003</t>
-  </si>
-  <si>
     <t>Naproxen + Esomeprazole</t>
   </si>
   <si>
@@ -2430,6 +2425,9 @@
   </si>
   <si>
     <t>Viscosurgical</t>
+  </si>
+  <si>
+    <t>Simple Analgesics</t>
   </si>
 </sst>
 </file>
@@ -2898,7 +2896,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,6 +3265,93 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMK6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="3" max="1025" width="9.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK25"/>
   <sheetViews>
@@ -3562,7 +3647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
@@ -3683,7 +3768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -3833,7 +3918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -4043,7 +4128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -4244,7 +4329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
@@ -4285,7 +4370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -4474,7 +4559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMK7"/>
   <sheetViews>
@@ -4572,7 +4657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
@@ -4985,7 +5070,2340 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5A4364-632F-4CC1-AFBE-F1E4AF3F5947}">
+  <dimension ref="A1:AMK25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1">
+        <v>85990009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7947003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1">
+        <v>412569008</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1">
+        <v>319357003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1">
+        <v>400487008</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="1">
+        <v>400819008</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1">
+        <v>424102008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1">
+        <v>412556009</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1">
+        <v>90332006</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1">
+        <v>423037001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1">
+        <v>350309002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1">
+        <v>423936008</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1">
+        <v>423801005</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1">
+        <v>400658001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1">
+        <v>427164001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1">
+        <v>412499001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1">
+        <v>398785002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+      <c r="BV24" s="2"/>
+      <c r="BW24" s="2"/>
+      <c r="BX24" s="2"/>
+      <c r="BY24" s="2"/>
+      <c r="BZ24" s="2"/>
+      <c r="CA24" s="2"/>
+      <c r="CB24" s="2"/>
+      <c r="CC24" s="2"/>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2"/>
+      <c r="CF24" s="2"/>
+      <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="2"/>
+      <c r="CJ24" s="2"/>
+      <c r="CK24" s="2"/>
+      <c r="CL24" s="2"/>
+      <c r="CM24" s="2"/>
+      <c r="CN24" s="2"/>
+      <c r="CO24" s="2"/>
+      <c r="CP24" s="2"/>
+      <c r="CQ24" s="2"/>
+      <c r="CR24" s="2"/>
+      <c r="CS24" s="2"/>
+      <c r="CT24" s="2"/>
+      <c r="CU24" s="2"/>
+      <c r="CV24" s="2"/>
+      <c r="CW24" s="2"/>
+      <c r="CX24" s="2"/>
+      <c r="CY24" s="2"/>
+      <c r="CZ24" s="2"/>
+      <c r="DA24" s="2"/>
+      <c r="DB24" s="2"/>
+      <c r="DC24" s="2"/>
+      <c r="DD24" s="2"/>
+      <c r="DE24" s="2"/>
+      <c r="DF24" s="2"/>
+      <c r="DG24" s="2"/>
+      <c r="DH24" s="2"/>
+      <c r="DI24" s="2"/>
+      <c r="DJ24" s="2"/>
+      <c r="DK24" s="2"/>
+      <c r="DL24" s="2"/>
+      <c r="DM24" s="2"/>
+      <c r="DN24" s="2"/>
+      <c r="DO24" s="2"/>
+      <c r="DP24" s="2"/>
+      <c r="DQ24" s="2"/>
+      <c r="DR24" s="2"/>
+      <c r="DS24" s="2"/>
+      <c r="DT24" s="2"/>
+      <c r="DU24" s="2"/>
+      <c r="DV24" s="2"/>
+      <c r="DW24" s="2"/>
+      <c r="DX24" s="2"/>
+      <c r="DY24" s="2"/>
+      <c r="DZ24" s="2"/>
+      <c r="EA24" s="2"/>
+      <c r="EB24" s="2"/>
+      <c r="EC24" s="2"/>
+      <c r="ED24" s="2"/>
+      <c r="EE24" s="2"/>
+      <c r="EF24" s="2"/>
+      <c r="EG24" s="2"/>
+      <c r="EH24" s="2"/>
+      <c r="EI24" s="2"/>
+      <c r="EJ24" s="2"/>
+      <c r="EK24" s="2"/>
+      <c r="EL24" s="2"/>
+      <c r="EM24" s="2"/>
+      <c r="EN24" s="2"/>
+      <c r="EO24" s="2"/>
+      <c r="EP24" s="2"/>
+      <c r="EQ24" s="2"/>
+      <c r="ER24" s="2"/>
+      <c r="ES24" s="2"/>
+      <c r="ET24" s="2"/>
+      <c r="EU24" s="2"/>
+      <c r="EV24" s="2"/>
+      <c r="EW24" s="2"/>
+      <c r="EX24" s="2"/>
+      <c r="EY24" s="2"/>
+      <c r="EZ24" s="2"/>
+      <c r="FA24" s="2"/>
+      <c r="FB24" s="2"/>
+      <c r="FC24" s="2"/>
+      <c r="FD24" s="2"/>
+      <c r="FE24" s="2"/>
+      <c r="FF24" s="2"/>
+      <c r="FG24" s="2"/>
+      <c r="FH24" s="2"/>
+      <c r="FI24" s="2"/>
+      <c r="FJ24" s="2"/>
+      <c r="FK24" s="2"/>
+      <c r="FL24" s="2"/>
+      <c r="FM24" s="2"/>
+      <c r="FN24" s="2"/>
+      <c r="FO24" s="2"/>
+      <c r="FP24" s="2"/>
+      <c r="FQ24" s="2"/>
+      <c r="FR24" s="2"/>
+      <c r="FS24" s="2"/>
+      <c r="FT24" s="2"/>
+      <c r="FU24" s="2"/>
+      <c r="FV24" s="2"/>
+      <c r="FW24" s="2"/>
+      <c r="FX24" s="2"/>
+      <c r="FY24" s="2"/>
+      <c r="FZ24" s="2"/>
+      <c r="GA24" s="2"/>
+      <c r="GB24" s="2"/>
+      <c r="GC24" s="2"/>
+      <c r="GD24" s="2"/>
+      <c r="GE24" s="2"/>
+      <c r="GF24" s="2"/>
+      <c r="GG24" s="2"/>
+      <c r="GH24" s="2"/>
+      <c r="GI24" s="2"/>
+      <c r="GJ24" s="2"/>
+      <c r="GK24" s="2"/>
+      <c r="GL24" s="2"/>
+      <c r="GM24" s="2"/>
+      <c r="GN24" s="2"/>
+      <c r="GO24" s="2"/>
+      <c r="GP24" s="2"/>
+      <c r="GQ24" s="2"/>
+      <c r="GR24" s="2"/>
+      <c r="GS24" s="2"/>
+      <c r="GT24" s="2"/>
+      <c r="GU24" s="2"/>
+      <c r="GV24" s="2"/>
+      <c r="GW24" s="2"/>
+      <c r="GX24" s="2"/>
+      <c r="GY24" s="2"/>
+      <c r="GZ24" s="2"/>
+      <c r="HA24" s="2"/>
+      <c r="HB24" s="2"/>
+      <c r="HC24" s="2"/>
+      <c r="HD24" s="2"/>
+      <c r="HE24" s="2"/>
+      <c r="HF24" s="2"/>
+      <c r="HG24" s="2"/>
+      <c r="HH24" s="2"/>
+      <c r="HI24" s="2"/>
+      <c r="HJ24" s="2"/>
+      <c r="HK24" s="2"/>
+      <c r="HL24" s="2"/>
+      <c r="HM24" s="2"/>
+      <c r="HN24" s="2"/>
+      <c r="HO24" s="2"/>
+      <c r="HP24" s="2"/>
+      <c r="HQ24" s="2"/>
+      <c r="HR24" s="2"/>
+      <c r="HS24" s="2"/>
+      <c r="HT24" s="2"/>
+      <c r="HU24" s="2"/>
+      <c r="HV24" s="2"/>
+      <c r="HW24" s="2"/>
+      <c r="HX24" s="2"/>
+      <c r="HY24" s="2"/>
+      <c r="HZ24" s="2"/>
+      <c r="IA24" s="2"/>
+      <c r="IB24" s="2"/>
+      <c r="IC24" s="2"/>
+      <c r="ID24" s="2"/>
+      <c r="IE24" s="2"/>
+      <c r="IF24" s="2"/>
+      <c r="IG24" s="2"/>
+      <c r="IH24" s="2"/>
+      <c r="II24" s="2"/>
+      <c r="IJ24" s="2"/>
+      <c r="IK24" s="2"/>
+      <c r="IL24" s="2"/>
+      <c r="IM24" s="2"/>
+      <c r="IN24" s="2"/>
+      <c r="IO24" s="2"/>
+      <c r="IP24" s="2"/>
+      <c r="IQ24" s="2"/>
+      <c r="IR24" s="2"/>
+      <c r="IS24" s="2"/>
+      <c r="IT24" s="2"/>
+      <c r="IU24" s="2"/>
+      <c r="IV24" s="2"/>
+      <c r="IW24" s="2"/>
+      <c r="IX24" s="2"/>
+      <c r="IY24" s="2"/>
+      <c r="IZ24" s="2"/>
+      <c r="JA24" s="2"/>
+      <c r="JB24" s="2"/>
+      <c r="JC24" s="2"/>
+      <c r="JD24" s="2"/>
+      <c r="JE24" s="2"/>
+      <c r="JF24" s="2"/>
+      <c r="JG24" s="2"/>
+      <c r="JH24" s="2"/>
+      <c r="JI24" s="2"/>
+      <c r="JJ24" s="2"/>
+      <c r="JK24" s="2"/>
+      <c r="JL24" s="2"/>
+      <c r="JM24" s="2"/>
+      <c r="JN24" s="2"/>
+      <c r="JO24" s="2"/>
+      <c r="JP24" s="2"/>
+      <c r="JQ24" s="2"/>
+      <c r="JR24" s="2"/>
+      <c r="JS24" s="2"/>
+      <c r="JT24" s="2"/>
+      <c r="JU24" s="2"/>
+      <c r="JV24" s="2"/>
+      <c r="JW24" s="2"/>
+      <c r="JX24" s="2"/>
+      <c r="JY24" s="2"/>
+      <c r="JZ24" s="2"/>
+      <c r="KA24" s="2"/>
+      <c r="KB24" s="2"/>
+      <c r="KC24" s="2"/>
+      <c r="KD24" s="2"/>
+      <c r="KE24" s="2"/>
+      <c r="KF24" s="2"/>
+      <c r="KG24" s="2"/>
+      <c r="KH24" s="2"/>
+      <c r="KI24" s="2"/>
+      <c r="KJ24" s="2"/>
+      <c r="KK24" s="2"/>
+      <c r="KL24" s="2"/>
+      <c r="KM24" s="2"/>
+      <c r="KN24" s="2"/>
+      <c r="KO24" s="2"/>
+      <c r="KP24" s="2"/>
+      <c r="KQ24" s="2"/>
+      <c r="KR24" s="2"/>
+      <c r="KS24" s="2"/>
+      <c r="KT24" s="2"/>
+      <c r="KU24" s="2"/>
+      <c r="KV24" s="2"/>
+      <c r="KW24" s="2"/>
+      <c r="KX24" s="2"/>
+      <c r="KY24" s="2"/>
+      <c r="KZ24" s="2"/>
+      <c r="LA24" s="2"/>
+      <c r="LB24" s="2"/>
+      <c r="LC24" s="2"/>
+      <c r="LD24" s="2"/>
+      <c r="LE24" s="2"/>
+      <c r="LF24" s="2"/>
+      <c r="LG24" s="2"/>
+      <c r="LH24" s="2"/>
+      <c r="LI24" s="2"/>
+      <c r="LJ24" s="2"/>
+      <c r="LK24" s="2"/>
+      <c r="LL24" s="2"/>
+      <c r="LM24" s="2"/>
+      <c r="LN24" s="2"/>
+      <c r="LO24" s="2"/>
+      <c r="LP24" s="2"/>
+      <c r="LQ24" s="2"/>
+      <c r="LR24" s="2"/>
+      <c r="LS24" s="2"/>
+      <c r="LT24" s="2"/>
+      <c r="LU24" s="2"/>
+      <c r="LV24" s="2"/>
+      <c r="LW24" s="2"/>
+      <c r="LX24" s="2"/>
+      <c r="LY24" s="2"/>
+      <c r="LZ24" s="2"/>
+      <c r="MA24" s="2"/>
+      <c r="MB24" s="2"/>
+      <c r="MC24" s="2"/>
+      <c r="MD24" s="2"/>
+      <c r="ME24" s="2"/>
+      <c r="MF24" s="2"/>
+      <c r="MG24" s="2"/>
+      <c r="MH24" s="2"/>
+      <c r="MI24" s="2"/>
+      <c r="MJ24" s="2"/>
+      <c r="MK24" s="2"/>
+      <c r="ML24" s="2"/>
+      <c r="MM24" s="2"/>
+      <c r="MN24" s="2"/>
+      <c r="MO24" s="2"/>
+      <c r="MP24" s="2"/>
+      <c r="MQ24" s="2"/>
+      <c r="MR24" s="2"/>
+      <c r="MS24" s="2"/>
+      <c r="MT24" s="2"/>
+      <c r="MU24" s="2"/>
+      <c r="MV24" s="2"/>
+      <c r="MW24" s="2"/>
+      <c r="MX24" s="2"/>
+      <c r="MY24" s="2"/>
+      <c r="MZ24" s="2"/>
+      <c r="NA24" s="2"/>
+      <c r="NB24" s="2"/>
+      <c r="NC24" s="2"/>
+      <c r="ND24" s="2"/>
+      <c r="NE24" s="2"/>
+      <c r="NF24" s="2"/>
+      <c r="NG24" s="2"/>
+      <c r="NH24" s="2"/>
+      <c r="NI24" s="2"/>
+      <c r="NJ24" s="2"/>
+      <c r="NK24" s="2"/>
+      <c r="NL24" s="2"/>
+      <c r="NM24" s="2"/>
+      <c r="NN24" s="2"/>
+      <c r="NO24" s="2"/>
+      <c r="NP24" s="2"/>
+      <c r="NQ24" s="2"/>
+      <c r="NR24" s="2"/>
+      <c r="NS24" s="2"/>
+      <c r="NT24" s="2"/>
+      <c r="NU24" s="2"/>
+      <c r="NV24" s="2"/>
+      <c r="NW24" s="2"/>
+      <c r="NX24" s="2"/>
+      <c r="NY24" s="2"/>
+      <c r="NZ24" s="2"/>
+      <c r="OA24" s="2"/>
+      <c r="OB24" s="2"/>
+      <c r="OC24" s="2"/>
+      <c r="OD24" s="2"/>
+      <c r="OE24" s="2"/>
+      <c r="OF24" s="2"/>
+      <c r="OG24" s="2"/>
+      <c r="OH24" s="2"/>
+      <c r="OI24" s="2"/>
+      <c r="OJ24" s="2"/>
+      <c r="OK24" s="2"/>
+      <c r="OL24" s="2"/>
+      <c r="OM24" s="2"/>
+      <c r="ON24" s="2"/>
+      <c r="OO24" s="2"/>
+      <c r="OP24" s="2"/>
+      <c r="OQ24" s="2"/>
+      <c r="OR24" s="2"/>
+      <c r="OS24" s="2"/>
+      <c r="OT24" s="2"/>
+      <c r="OU24" s="2"/>
+      <c r="OV24" s="2"/>
+      <c r="OW24" s="2"/>
+      <c r="OX24" s="2"/>
+      <c r="OY24" s="2"/>
+      <c r="OZ24" s="2"/>
+      <c r="PA24" s="2"/>
+      <c r="PB24" s="2"/>
+      <c r="PC24" s="2"/>
+      <c r="PD24" s="2"/>
+      <c r="PE24" s="2"/>
+      <c r="PF24" s="2"/>
+      <c r="PG24" s="2"/>
+      <c r="PH24" s="2"/>
+      <c r="PI24" s="2"/>
+      <c r="PJ24" s="2"/>
+      <c r="PK24" s="2"/>
+      <c r="PL24" s="2"/>
+      <c r="PM24" s="2"/>
+      <c r="PN24" s="2"/>
+      <c r="PO24" s="2"/>
+      <c r="PP24" s="2"/>
+      <c r="PQ24" s="2"/>
+      <c r="PR24" s="2"/>
+      <c r="PS24" s="2"/>
+      <c r="PT24" s="2"/>
+      <c r="PU24" s="2"/>
+      <c r="PV24" s="2"/>
+      <c r="PW24" s="2"/>
+      <c r="PX24" s="2"/>
+      <c r="PY24" s="2"/>
+      <c r="PZ24" s="2"/>
+      <c r="QA24" s="2"/>
+      <c r="QB24" s="2"/>
+      <c r="QC24" s="2"/>
+      <c r="QD24" s="2"/>
+      <c r="QE24" s="2"/>
+      <c r="QF24" s="2"/>
+      <c r="QG24" s="2"/>
+      <c r="QH24" s="2"/>
+      <c r="QI24" s="2"/>
+      <c r="QJ24" s="2"/>
+      <c r="QK24" s="2"/>
+      <c r="QL24" s="2"/>
+      <c r="QM24" s="2"/>
+      <c r="QN24" s="2"/>
+      <c r="QO24" s="2"/>
+      <c r="QP24" s="2"/>
+      <c r="QQ24" s="2"/>
+      <c r="QR24" s="2"/>
+      <c r="QS24" s="2"/>
+      <c r="QT24" s="2"/>
+      <c r="QU24" s="2"/>
+      <c r="QV24" s="2"/>
+      <c r="QW24" s="2"/>
+      <c r="QX24" s="2"/>
+      <c r="QY24" s="2"/>
+      <c r="QZ24" s="2"/>
+      <c r="RA24" s="2"/>
+      <c r="RB24" s="2"/>
+      <c r="RC24" s="2"/>
+      <c r="RD24" s="2"/>
+      <c r="RE24" s="2"/>
+      <c r="RF24" s="2"/>
+      <c r="RG24" s="2"/>
+      <c r="RH24" s="2"/>
+      <c r="RI24" s="2"/>
+      <c r="RJ24" s="2"/>
+      <c r="RK24" s="2"/>
+      <c r="RL24" s="2"/>
+      <c r="RM24" s="2"/>
+      <c r="RN24" s="2"/>
+      <c r="RO24" s="2"/>
+      <c r="RP24" s="2"/>
+      <c r="RQ24" s="2"/>
+      <c r="RR24" s="2"/>
+      <c r="RS24" s="2"/>
+      <c r="RT24" s="2"/>
+      <c r="RU24" s="2"/>
+      <c r="RV24" s="2"/>
+      <c r="RW24" s="2"/>
+      <c r="RX24" s="2"/>
+      <c r="RY24" s="2"/>
+      <c r="RZ24" s="2"/>
+      <c r="SA24" s="2"/>
+      <c r="SB24" s="2"/>
+      <c r="SC24" s="2"/>
+      <c r="SD24" s="2"/>
+      <c r="SE24" s="2"/>
+      <c r="SF24" s="2"/>
+      <c r="SG24" s="2"/>
+      <c r="SH24" s="2"/>
+      <c r="SI24" s="2"/>
+      <c r="SJ24" s="2"/>
+      <c r="SK24" s="2"/>
+      <c r="SL24" s="2"/>
+      <c r="SM24" s="2"/>
+      <c r="SN24" s="2"/>
+      <c r="SO24" s="2"/>
+      <c r="SP24" s="2"/>
+      <c r="SQ24" s="2"/>
+      <c r="SR24" s="2"/>
+      <c r="SS24" s="2"/>
+      <c r="ST24" s="2"/>
+      <c r="SU24" s="2"/>
+      <c r="SV24" s="2"/>
+      <c r="SW24" s="2"/>
+      <c r="SX24" s="2"/>
+      <c r="SY24" s="2"/>
+      <c r="SZ24" s="2"/>
+      <c r="TA24" s="2"/>
+      <c r="TB24" s="2"/>
+      <c r="TC24" s="2"/>
+      <c r="TD24" s="2"/>
+      <c r="TE24" s="2"/>
+      <c r="TF24" s="2"/>
+      <c r="TG24" s="2"/>
+      <c r="TH24" s="2"/>
+      <c r="TI24" s="2"/>
+      <c r="TJ24" s="2"/>
+      <c r="TK24" s="2"/>
+      <c r="TL24" s="2"/>
+      <c r="TM24" s="2"/>
+      <c r="TN24" s="2"/>
+      <c r="TO24" s="2"/>
+      <c r="TP24" s="2"/>
+      <c r="TQ24" s="2"/>
+      <c r="TR24" s="2"/>
+      <c r="TS24" s="2"/>
+      <c r="TT24" s="2"/>
+      <c r="TU24" s="2"/>
+      <c r="TV24" s="2"/>
+      <c r="TW24" s="2"/>
+      <c r="TX24" s="2"/>
+      <c r="TY24" s="2"/>
+      <c r="TZ24" s="2"/>
+      <c r="UA24" s="2"/>
+      <c r="UB24" s="2"/>
+      <c r="UC24" s="2"/>
+      <c r="UD24" s="2"/>
+      <c r="UE24" s="2"/>
+      <c r="UF24" s="2"/>
+      <c r="UG24" s="2"/>
+      <c r="UH24" s="2"/>
+      <c r="UI24" s="2"/>
+      <c r="UJ24" s="2"/>
+      <c r="UK24" s="2"/>
+      <c r="UL24" s="2"/>
+      <c r="UM24" s="2"/>
+      <c r="UN24" s="2"/>
+      <c r="UO24" s="2"/>
+      <c r="UP24" s="2"/>
+      <c r="UQ24" s="2"/>
+      <c r="UR24" s="2"/>
+      <c r="US24" s="2"/>
+      <c r="UT24" s="2"/>
+      <c r="UU24" s="2"/>
+      <c r="UV24" s="2"/>
+      <c r="UW24" s="2"/>
+      <c r="UX24" s="2"/>
+      <c r="UY24" s="2"/>
+      <c r="UZ24" s="2"/>
+      <c r="VA24" s="2"/>
+      <c r="VB24" s="2"/>
+      <c r="VC24" s="2"/>
+      <c r="VD24" s="2"/>
+      <c r="VE24" s="2"/>
+      <c r="VF24" s="2"/>
+      <c r="VG24" s="2"/>
+      <c r="VH24" s="2"/>
+      <c r="VI24" s="2"/>
+      <c r="VJ24" s="2"/>
+      <c r="VK24" s="2"/>
+      <c r="VL24" s="2"/>
+      <c r="VM24" s="2"/>
+      <c r="VN24" s="2"/>
+      <c r="VO24" s="2"/>
+      <c r="VP24" s="2"/>
+      <c r="VQ24" s="2"/>
+      <c r="VR24" s="2"/>
+      <c r="VS24" s="2"/>
+      <c r="VT24" s="2"/>
+      <c r="VU24" s="2"/>
+      <c r="VV24" s="2"/>
+      <c r="VW24" s="2"/>
+      <c r="VX24" s="2"/>
+      <c r="VY24" s="2"/>
+      <c r="VZ24" s="2"/>
+      <c r="WA24" s="2"/>
+      <c r="WB24" s="2"/>
+      <c r="WC24" s="2"/>
+      <c r="WD24" s="2"/>
+      <c r="WE24" s="2"/>
+      <c r="WF24" s="2"/>
+      <c r="WG24" s="2"/>
+      <c r="WH24" s="2"/>
+      <c r="WI24" s="2"/>
+      <c r="WJ24" s="2"/>
+      <c r="WK24" s="2"/>
+      <c r="WL24" s="2"/>
+      <c r="WM24" s="2"/>
+      <c r="WN24" s="2"/>
+      <c r="WO24" s="2"/>
+      <c r="WP24" s="2"/>
+      <c r="WQ24" s="2"/>
+      <c r="WR24" s="2"/>
+      <c r="WS24" s="2"/>
+      <c r="WT24" s="2"/>
+      <c r="WU24" s="2"/>
+      <c r="WV24" s="2"/>
+      <c r="WW24" s="2"/>
+      <c r="WX24" s="2"/>
+      <c r="WY24" s="2"/>
+      <c r="WZ24" s="2"/>
+      <c r="XA24" s="2"/>
+      <c r="XB24" s="2"/>
+      <c r="XC24" s="2"/>
+      <c r="XD24" s="2"/>
+      <c r="XE24" s="2"/>
+      <c r="XF24" s="2"/>
+      <c r="XG24" s="2"/>
+      <c r="XH24" s="2"/>
+      <c r="XI24" s="2"/>
+      <c r="XJ24" s="2"/>
+      <c r="XK24" s="2"/>
+      <c r="XL24" s="2"/>
+      <c r="XM24" s="2"/>
+      <c r="XN24" s="2"/>
+      <c r="XO24" s="2"/>
+      <c r="XP24" s="2"/>
+      <c r="XQ24" s="2"/>
+      <c r="XR24" s="2"/>
+      <c r="XS24" s="2"/>
+      <c r="XT24" s="2"/>
+      <c r="XU24" s="2"/>
+      <c r="XV24" s="2"/>
+      <c r="XW24" s="2"/>
+      <c r="XX24" s="2"/>
+      <c r="XY24" s="2"/>
+      <c r="XZ24" s="2"/>
+      <c r="YA24" s="2"/>
+      <c r="YB24" s="2"/>
+      <c r="YC24" s="2"/>
+      <c r="YD24" s="2"/>
+      <c r="YE24" s="2"/>
+      <c r="YF24" s="2"/>
+      <c r="YG24" s="2"/>
+      <c r="YH24" s="2"/>
+      <c r="YI24" s="2"/>
+      <c r="YJ24" s="2"/>
+      <c r="YK24" s="2"/>
+      <c r="YL24" s="2"/>
+      <c r="YM24" s="2"/>
+      <c r="YN24" s="2"/>
+      <c r="YO24" s="2"/>
+      <c r="YP24" s="2"/>
+      <c r="YQ24" s="2"/>
+      <c r="YR24" s="2"/>
+      <c r="YS24" s="2"/>
+      <c r="YT24" s="2"/>
+      <c r="YU24" s="2"/>
+      <c r="YV24" s="2"/>
+      <c r="YW24" s="2"/>
+      <c r="YX24" s="2"/>
+      <c r="YY24" s="2"/>
+      <c r="YZ24" s="2"/>
+      <c r="ZA24" s="2"/>
+      <c r="ZB24" s="2"/>
+      <c r="ZC24" s="2"/>
+      <c r="ZD24" s="2"/>
+      <c r="ZE24" s="2"/>
+      <c r="ZF24" s="2"/>
+      <c r="ZG24" s="2"/>
+      <c r="ZH24" s="2"/>
+      <c r="ZI24" s="2"/>
+      <c r="ZJ24" s="2"/>
+      <c r="ZK24" s="2"/>
+      <c r="ZL24" s="2"/>
+      <c r="ZM24" s="2"/>
+      <c r="ZN24" s="2"/>
+      <c r="ZO24" s="2"/>
+      <c r="ZP24" s="2"/>
+      <c r="ZQ24" s="2"/>
+      <c r="ZR24" s="2"/>
+      <c r="ZS24" s="2"/>
+      <c r="ZT24" s="2"/>
+      <c r="ZU24" s="2"/>
+      <c r="ZV24" s="2"/>
+      <c r="ZW24" s="2"/>
+      <c r="ZX24" s="2"/>
+      <c r="ZY24" s="2"/>
+      <c r="ZZ24" s="2"/>
+      <c r="AAA24" s="2"/>
+      <c r="AAB24" s="2"/>
+      <c r="AAC24" s="2"/>
+      <c r="AAD24" s="2"/>
+      <c r="AAE24" s="2"/>
+      <c r="AAF24" s="2"/>
+      <c r="AAG24" s="2"/>
+      <c r="AAH24" s="2"/>
+      <c r="AAI24" s="2"/>
+      <c r="AAJ24" s="2"/>
+      <c r="AAK24" s="2"/>
+      <c r="AAL24" s="2"/>
+      <c r="AAM24" s="2"/>
+      <c r="AAN24" s="2"/>
+      <c r="AAO24" s="2"/>
+      <c r="AAP24" s="2"/>
+      <c r="AAQ24" s="2"/>
+      <c r="AAR24" s="2"/>
+      <c r="AAS24" s="2"/>
+      <c r="AAT24" s="2"/>
+      <c r="AAU24" s="2"/>
+      <c r="AAV24" s="2"/>
+      <c r="AAW24" s="2"/>
+      <c r="AAX24" s="2"/>
+      <c r="AAY24" s="2"/>
+      <c r="AAZ24" s="2"/>
+      <c r="ABA24" s="2"/>
+      <c r="ABB24" s="2"/>
+      <c r="ABC24" s="2"/>
+      <c r="ABD24" s="2"/>
+      <c r="ABE24" s="2"/>
+      <c r="ABF24" s="2"/>
+      <c r="ABG24" s="2"/>
+      <c r="ABH24" s="2"/>
+      <c r="ABI24" s="2"/>
+      <c r="ABJ24" s="2"/>
+      <c r="ABK24" s="2"/>
+      <c r="ABL24" s="2"/>
+      <c r="ABM24" s="2"/>
+      <c r="ABN24" s="2"/>
+      <c r="ABO24" s="2"/>
+      <c r="ABP24" s="2"/>
+      <c r="ABQ24" s="2"/>
+      <c r="ABR24" s="2"/>
+      <c r="ABS24" s="2"/>
+      <c r="ABT24" s="2"/>
+      <c r="ABU24" s="2"/>
+      <c r="ABV24" s="2"/>
+      <c r="ABW24" s="2"/>
+      <c r="ABX24" s="2"/>
+      <c r="ABY24" s="2"/>
+      <c r="ABZ24" s="2"/>
+      <c r="ACA24" s="2"/>
+      <c r="ACB24" s="2"/>
+      <c r="ACC24" s="2"/>
+      <c r="ACD24" s="2"/>
+      <c r="ACE24" s="2"/>
+      <c r="ACF24" s="2"/>
+      <c r="ACG24" s="2"/>
+      <c r="ACH24" s="2"/>
+      <c r="ACI24" s="2"/>
+      <c r="ACJ24" s="2"/>
+      <c r="ACK24" s="2"/>
+      <c r="ACL24" s="2"/>
+      <c r="ACM24" s="2"/>
+      <c r="ACN24" s="2"/>
+      <c r="ACO24" s="2"/>
+      <c r="ACP24" s="2"/>
+      <c r="ACQ24" s="2"/>
+      <c r="ACR24" s="2"/>
+      <c r="ACS24" s="2"/>
+      <c r="ACT24" s="2"/>
+      <c r="ACU24" s="2"/>
+      <c r="ACV24" s="2"/>
+      <c r="ACW24" s="2"/>
+      <c r="ACX24" s="2"/>
+      <c r="ACY24" s="2"/>
+      <c r="ACZ24" s="2"/>
+      <c r="ADA24" s="2"/>
+      <c r="ADB24" s="2"/>
+      <c r="ADC24" s="2"/>
+      <c r="ADD24" s="2"/>
+      <c r="ADE24" s="2"/>
+      <c r="ADF24" s="2"/>
+      <c r="ADG24" s="2"/>
+      <c r="ADH24" s="2"/>
+      <c r="ADI24" s="2"/>
+      <c r="ADJ24" s="2"/>
+      <c r="ADK24" s="2"/>
+      <c r="ADL24" s="2"/>
+      <c r="ADM24" s="2"/>
+      <c r="ADN24" s="2"/>
+      <c r="ADO24" s="2"/>
+      <c r="ADP24" s="2"/>
+      <c r="ADQ24" s="2"/>
+      <c r="ADR24" s="2"/>
+      <c r="ADS24" s="2"/>
+      <c r="ADT24" s="2"/>
+      <c r="ADU24" s="2"/>
+      <c r="ADV24" s="2"/>
+      <c r="ADW24" s="2"/>
+      <c r="ADX24" s="2"/>
+      <c r="ADY24" s="2"/>
+      <c r="ADZ24" s="2"/>
+      <c r="AEA24" s="2"/>
+      <c r="AEB24" s="2"/>
+      <c r="AEC24" s="2"/>
+      <c r="AED24" s="2"/>
+      <c r="AEE24" s="2"/>
+      <c r="AEF24" s="2"/>
+      <c r="AEG24" s="2"/>
+      <c r="AEH24" s="2"/>
+      <c r="AEI24" s="2"/>
+      <c r="AEJ24" s="2"/>
+      <c r="AEK24" s="2"/>
+      <c r="AEL24" s="2"/>
+      <c r="AEM24" s="2"/>
+      <c r="AEN24" s="2"/>
+      <c r="AEO24" s="2"/>
+      <c r="AEP24" s="2"/>
+      <c r="AEQ24" s="2"/>
+      <c r="AER24" s="2"/>
+      <c r="AES24" s="2"/>
+      <c r="AET24" s="2"/>
+      <c r="AEU24" s="2"/>
+      <c r="AEV24" s="2"/>
+      <c r="AEW24" s="2"/>
+      <c r="AEX24" s="2"/>
+      <c r="AEY24" s="2"/>
+      <c r="AEZ24" s="2"/>
+      <c r="AFA24" s="2"/>
+      <c r="AFB24" s="2"/>
+      <c r="AFC24" s="2"/>
+      <c r="AFD24" s="2"/>
+      <c r="AFE24" s="2"/>
+      <c r="AFF24" s="2"/>
+      <c r="AFG24" s="2"/>
+      <c r="AFH24" s="2"/>
+      <c r="AFI24" s="2"/>
+      <c r="AFJ24" s="2"/>
+      <c r="AFK24" s="2"/>
+      <c r="AFL24" s="2"/>
+      <c r="AFM24" s="2"/>
+      <c r="AFN24" s="2"/>
+      <c r="AFO24" s="2"/>
+      <c r="AFP24" s="2"/>
+      <c r="AFQ24" s="2"/>
+      <c r="AFR24" s="2"/>
+      <c r="AFS24" s="2"/>
+      <c r="AFT24" s="2"/>
+      <c r="AFU24" s="2"/>
+      <c r="AFV24" s="2"/>
+      <c r="AFW24" s="2"/>
+      <c r="AFX24" s="2"/>
+      <c r="AFY24" s="2"/>
+      <c r="AFZ24" s="2"/>
+      <c r="AGA24" s="2"/>
+      <c r="AGB24" s="2"/>
+      <c r="AGC24" s="2"/>
+      <c r="AGD24" s="2"/>
+      <c r="AGE24" s="2"/>
+      <c r="AGF24" s="2"/>
+      <c r="AGG24" s="2"/>
+      <c r="AGH24" s="2"/>
+      <c r="AGI24" s="2"/>
+      <c r="AGJ24" s="2"/>
+      <c r="AGK24" s="2"/>
+      <c r="AGL24" s="2"/>
+      <c r="AGM24" s="2"/>
+      <c r="AGN24" s="2"/>
+      <c r="AGO24" s="2"/>
+      <c r="AGP24" s="2"/>
+      <c r="AGQ24" s="2"/>
+      <c r="AGR24" s="2"/>
+      <c r="AGS24" s="2"/>
+      <c r="AGT24" s="2"/>
+      <c r="AGU24" s="2"/>
+      <c r="AGV24" s="2"/>
+      <c r="AGW24" s="2"/>
+      <c r="AGX24" s="2"/>
+      <c r="AGY24" s="2"/>
+      <c r="AGZ24" s="2"/>
+      <c r="AHA24" s="2"/>
+      <c r="AHB24" s="2"/>
+      <c r="AHC24" s="2"/>
+      <c r="AHD24" s="2"/>
+      <c r="AHE24" s="2"/>
+      <c r="AHF24" s="2"/>
+      <c r="AHG24" s="2"/>
+      <c r="AHH24" s="2"/>
+      <c r="AHI24" s="2"/>
+      <c r="AHJ24" s="2"/>
+      <c r="AHK24" s="2"/>
+      <c r="AHL24" s="2"/>
+      <c r="AHM24" s="2"/>
+      <c r="AHN24" s="2"/>
+      <c r="AHO24" s="2"/>
+      <c r="AHP24" s="2"/>
+      <c r="AHQ24" s="2"/>
+      <c r="AHR24" s="2"/>
+      <c r="AHS24" s="2"/>
+      <c r="AHT24" s="2"/>
+      <c r="AHU24" s="2"/>
+      <c r="AHV24" s="2"/>
+      <c r="AHW24" s="2"/>
+      <c r="AHX24" s="2"/>
+      <c r="AHY24" s="2"/>
+      <c r="AHZ24" s="2"/>
+      <c r="AIA24" s="2"/>
+      <c r="AIB24" s="2"/>
+      <c r="AIC24" s="2"/>
+      <c r="AID24" s="2"/>
+      <c r="AIE24" s="2"/>
+      <c r="AIF24" s="2"/>
+      <c r="AIG24" s="2"/>
+      <c r="AIH24" s="2"/>
+      <c r="AII24" s="2"/>
+      <c r="AIJ24" s="2"/>
+      <c r="AIK24" s="2"/>
+      <c r="AIL24" s="2"/>
+      <c r="AIM24" s="2"/>
+      <c r="AIN24" s="2"/>
+      <c r="AIO24" s="2"/>
+      <c r="AIP24" s="2"/>
+      <c r="AIQ24" s="2"/>
+      <c r="AIR24" s="2"/>
+      <c r="AIS24" s="2"/>
+      <c r="AIT24" s="2"/>
+      <c r="AIU24" s="2"/>
+      <c r="AIV24" s="2"/>
+      <c r="AIW24" s="2"/>
+      <c r="AIX24" s="2"/>
+      <c r="AIY24" s="2"/>
+      <c r="AIZ24" s="2"/>
+      <c r="AJA24" s="2"/>
+      <c r="AJB24" s="2"/>
+      <c r="AJC24" s="2"/>
+      <c r="AJD24" s="2"/>
+      <c r="AJE24" s="2"/>
+      <c r="AJF24" s="2"/>
+      <c r="AJG24" s="2"/>
+      <c r="AJH24" s="2"/>
+      <c r="AJI24" s="2"/>
+      <c r="AJJ24" s="2"/>
+      <c r="AJK24" s="2"/>
+      <c r="AJL24" s="2"/>
+      <c r="AJM24" s="2"/>
+      <c r="AJN24" s="2"/>
+      <c r="AJO24" s="2"/>
+      <c r="AJP24" s="2"/>
+      <c r="AJQ24" s="2"/>
+      <c r="AJR24" s="2"/>
+      <c r="AJS24" s="2"/>
+      <c r="AJT24" s="2"/>
+      <c r="AJU24" s="2"/>
+      <c r="AJV24" s="2"/>
+      <c r="AJW24" s="2"/>
+      <c r="AJX24" s="2"/>
+      <c r="AJY24" s="2"/>
+      <c r="AJZ24" s="2"/>
+      <c r="AKA24" s="2"/>
+      <c r="AKB24" s="2"/>
+      <c r="AKC24" s="2"/>
+      <c r="AKD24" s="2"/>
+      <c r="AKE24" s="2"/>
+      <c r="AKF24" s="2"/>
+      <c r="AKG24" s="2"/>
+      <c r="AKH24" s="2"/>
+      <c r="AKI24" s="2"/>
+      <c r="AKJ24" s="2"/>
+      <c r="AKK24" s="2"/>
+      <c r="AKL24" s="2"/>
+      <c r="AKM24" s="2"/>
+      <c r="AKN24" s="2"/>
+      <c r="AKO24" s="2"/>
+      <c r="AKP24" s="2"/>
+      <c r="AKQ24" s="2"/>
+      <c r="AKR24" s="2"/>
+      <c r="AKS24" s="2"/>
+      <c r="AKT24" s="2"/>
+      <c r="AKU24" s="2"/>
+      <c r="AKV24" s="2"/>
+      <c r="AKW24" s="2"/>
+      <c r="AKX24" s="2"/>
+      <c r="AKY24" s="2"/>
+      <c r="AKZ24" s="2"/>
+      <c r="ALA24" s="2"/>
+      <c r="ALB24" s="2"/>
+      <c r="ALC24" s="2"/>
+      <c r="ALD24" s="2"/>
+      <c r="ALE24" s="2"/>
+      <c r="ALF24" s="2"/>
+      <c r="ALG24" s="2"/>
+      <c r="ALH24" s="2"/>
+      <c r="ALI24" s="2"/>
+      <c r="ALJ24" s="2"/>
+      <c r="ALK24" s="2"/>
+      <c r="ALL24" s="2"/>
+      <c r="ALM24" s="2"/>
+      <c r="ALN24" s="2"/>
+      <c r="ALO24" s="2"/>
+      <c r="ALP24" s="2"/>
+      <c r="ALQ24" s="2"/>
+      <c r="ALR24" s="2"/>
+      <c r="ALS24" s="2"/>
+      <c r="ALT24" s="2"/>
+      <c r="ALU24" s="2"/>
+      <c r="ALV24" s="2"/>
+      <c r="ALW24" s="2"/>
+      <c r="ALX24" s="2"/>
+      <c r="ALY24" s="2"/>
+      <c r="ALZ24" s="2"/>
+      <c r="AMA24" s="2"/>
+      <c r="AMB24" s="2"/>
+      <c r="AMC24" s="2"/>
+      <c r="AMD24" s="2"/>
+      <c r="AME24" s="2"/>
+      <c r="AMF24" s="2"/>
+      <c r="AMG24" s="2"/>
+      <c r="AMH24" s="2"/>
+      <c r="AMI24" s="2"/>
+      <c r="AMJ24" s="2"/>
+      <c r="AMK24" s="2"/>
+    </row>
+    <row r="25" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="2"/>
+      <c r="BW25" s="2"/>
+      <c r="BX25" s="2"/>
+      <c r="BY25" s="2"/>
+      <c r="BZ25" s="2"/>
+      <c r="CA25" s="2"/>
+      <c r="CB25" s="2"/>
+      <c r="CC25" s="2"/>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+      <c r="CF25" s="2"/>
+      <c r="CG25" s="2"/>
+      <c r="CH25" s="2"/>
+      <c r="CI25" s="2"/>
+      <c r="CJ25" s="2"/>
+      <c r="CK25" s="2"/>
+      <c r="CL25" s="2"/>
+      <c r="CM25" s="2"/>
+      <c r="CN25" s="2"/>
+      <c r="CO25" s="2"/>
+      <c r="CP25" s="2"/>
+      <c r="CQ25" s="2"/>
+      <c r="CR25" s="2"/>
+      <c r="CS25" s="2"/>
+      <c r="CT25" s="2"/>
+      <c r="CU25" s="2"/>
+      <c r="CV25" s="2"/>
+      <c r="CW25" s="2"/>
+      <c r="CX25" s="2"/>
+      <c r="CY25" s="2"/>
+      <c r="CZ25" s="2"/>
+      <c r="DA25" s="2"/>
+      <c r="DB25" s="2"/>
+      <c r="DC25" s="2"/>
+      <c r="DD25" s="2"/>
+      <c r="DE25" s="2"/>
+      <c r="DF25" s="2"/>
+      <c r="DG25" s="2"/>
+      <c r="DH25" s="2"/>
+      <c r="DI25" s="2"/>
+      <c r="DJ25" s="2"/>
+      <c r="DK25" s="2"/>
+      <c r="DL25" s="2"/>
+      <c r="DM25" s="2"/>
+      <c r="DN25" s="2"/>
+      <c r="DO25" s="2"/>
+      <c r="DP25" s="2"/>
+      <c r="DQ25" s="2"/>
+      <c r="DR25" s="2"/>
+      <c r="DS25" s="2"/>
+      <c r="DT25" s="2"/>
+      <c r="DU25" s="2"/>
+      <c r="DV25" s="2"/>
+      <c r="DW25" s="2"/>
+      <c r="DX25" s="2"/>
+      <c r="DY25" s="2"/>
+      <c r="DZ25" s="2"/>
+      <c r="EA25" s="2"/>
+      <c r="EB25" s="2"/>
+      <c r="EC25" s="2"/>
+      <c r="ED25" s="2"/>
+      <c r="EE25" s="2"/>
+      <c r="EF25" s="2"/>
+      <c r="EG25" s="2"/>
+      <c r="EH25" s="2"/>
+      <c r="EI25" s="2"/>
+      <c r="EJ25" s="2"/>
+      <c r="EK25" s="2"/>
+      <c r="EL25" s="2"/>
+      <c r="EM25" s="2"/>
+      <c r="EN25" s="2"/>
+      <c r="EO25" s="2"/>
+      <c r="EP25" s="2"/>
+      <c r="EQ25" s="2"/>
+      <c r="ER25" s="2"/>
+      <c r="ES25" s="2"/>
+      <c r="ET25" s="2"/>
+      <c r="EU25" s="2"/>
+      <c r="EV25" s="2"/>
+      <c r="EW25" s="2"/>
+      <c r="EX25" s="2"/>
+      <c r="EY25" s="2"/>
+      <c r="EZ25" s="2"/>
+      <c r="FA25" s="2"/>
+      <c r="FB25" s="2"/>
+      <c r="FC25" s="2"/>
+      <c r="FD25" s="2"/>
+      <c r="FE25" s="2"/>
+      <c r="FF25" s="2"/>
+      <c r="FG25" s="2"/>
+      <c r="FH25" s="2"/>
+      <c r="FI25" s="2"/>
+      <c r="FJ25" s="2"/>
+      <c r="FK25" s="2"/>
+      <c r="FL25" s="2"/>
+      <c r="FM25" s="2"/>
+      <c r="FN25" s="2"/>
+      <c r="FO25" s="2"/>
+      <c r="FP25" s="2"/>
+      <c r="FQ25" s="2"/>
+      <c r="FR25" s="2"/>
+      <c r="FS25" s="2"/>
+      <c r="FT25" s="2"/>
+      <c r="FU25" s="2"/>
+      <c r="FV25" s="2"/>
+      <c r="FW25" s="2"/>
+      <c r="FX25" s="2"/>
+      <c r="FY25" s="2"/>
+      <c r="FZ25" s="2"/>
+      <c r="GA25" s="2"/>
+      <c r="GB25" s="2"/>
+      <c r="GC25" s="2"/>
+      <c r="GD25" s="2"/>
+      <c r="GE25" s="2"/>
+      <c r="GF25" s="2"/>
+      <c r="GG25" s="2"/>
+      <c r="GH25" s="2"/>
+      <c r="GI25" s="2"/>
+      <c r="GJ25" s="2"/>
+      <c r="GK25" s="2"/>
+      <c r="GL25" s="2"/>
+      <c r="GM25" s="2"/>
+      <c r="GN25" s="2"/>
+      <c r="GO25" s="2"/>
+      <c r="GP25" s="2"/>
+      <c r="GQ25" s="2"/>
+      <c r="GR25" s="2"/>
+      <c r="GS25" s="2"/>
+      <c r="GT25" s="2"/>
+      <c r="GU25" s="2"/>
+      <c r="GV25" s="2"/>
+      <c r="GW25" s="2"/>
+      <c r="GX25" s="2"/>
+      <c r="GY25" s="2"/>
+      <c r="GZ25" s="2"/>
+      <c r="HA25" s="2"/>
+      <c r="HB25" s="2"/>
+      <c r="HC25" s="2"/>
+      <c r="HD25" s="2"/>
+      <c r="HE25" s="2"/>
+      <c r="HF25" s="2"/>
+      <c r="HG25" s="2"/>
+      <c r="HH25" s="2"/>
+      <c r="HI25" s="2"/>
+      <c r="HJ25" s="2"/>
+      <c r="HK25" s="2"/>
+      <c r="HL25" s="2"/>
+      <c r="HM25" s="2"/>
+      <c r="HN25" s="2"/>
+      <c r="HO25" s="2"/>
+      <c r="HP25" s="2"/>
+      <c r="HQ25" s="2"/>
+      <c r="HR25" s="2"/>
+      <c r="HS25" s="2"/>
+      <c r="HT25" s="2"/>
+      <c r="HU25" s="2"/>
+      <c r="HV25" s="2"/>
+      <c r="HW25" s="2"/>
+      <c r="HX25" s="2"/>
+      <c r="HY25" s="2"/>
+      <c r="HZ25" s="2"/>
+      <c r="IA25" s="2"/>
+      <c r="IB25" s="2"/>
+      <c r="IC25" s="2"/>
+      <c r="ID25" s="2"/>
+      <c r="IE25" s="2"/>
+      <c r="IF25" s="2"/>
+      <c r="IG25" s="2"/>
+      <c r="IH25" s="2"/>
+      <c r="II25" s="2"/>
+      <c r="IJ25" s="2"/>
+      <c r="IK25" s="2"/>
+      <c r="IL25" s="2"/>
+      <c r="IM25" s="2"/>
+      <c r="IN25" s="2"/>
+      <c r="IO25" s="2"/>
+      <c r="IP25" s="2"/>
+      <c r="IQ25" s="2"/>
+      <c r="IR25" s="2"/>
+      <c r="IS25" s="2"/>
+      <c r="IT25" s="2"/>
+      <c r="IU25" s="2"/>
+      <c r="IV25" s="2"/>
+      <c r="IW25" s="2"/>
+      <c r="IX25" s="2"/>
+      <c r="IY25" s="2"/>
+      <c r="IZ25" s="2"/>
+      <c r="JA25" s="2"/>
+      <c r="JB25" s="2"/>
+      <c r="JC25" s="2"/>
+      <c r="JD25" s="2"/>
+      <c r="JE25" s="2"/>
+      <c r="JF25" s="2"/>
+      <c r="JG25" s="2"/>
+      <c r="JH25" s="2"/>
+      <c r="JI25" s="2"/>
+      <c r="JJ25" s="2"/>
+      <c r="JK25" s="2"/>
+      <c r="JL25" s="2"/>
+      <c r="JM25" s="2"/>
+      <c r="JN25" s="2"/>
+      <c r="JO25" s="2"/>
+      <c r="JP25" s="2"/>
+      <c r="JQ25" s="2"/>
+      <c r="JR25" s="2"/>
+      <c r="JS25" s="2"/>
+      <c r="JT25" s="2"/>
+      <c r="JU25" s="2"/>
+      <c r="JV25" s="2"/>
+      <c r="JW25" s="2"/>
+      <c r="JX25" s="2"/>
+      <c r="JY25" s="2"/>
+      <c r="JZ25" s="2"/>
+      <c r="KA25" s="2"/>
+      <c r="KB25" s="2"/>
+      <c r="KC25" s="2"/>
+      <c r="KD25" s="2"/>
+      <c r="KE25" s="2"/>
+      <c r="KF25" s="2"/>
+      <c r="KG25" s="2"/>
+      <c r="KH25" s="2"/>
+      <c r="KI25" s="2"/>
+      <c r="KJ25" s="2"/>
+      <c r="KK25" s="2"/>
+      <c r="KL25" s="2"/>
+      <c r="KM25" s="2"/>
+      <c r="KN25" s="2"/>
+      <c r="KO25" s="2"/>
+      <c r="KP25" s="2"/>
+      <c r="KQ25" s="2"/>
+      <c r="KR25" s="2"/>
+      <c r="KS25" s="2"/>
+      <c r="KT25" s="2"/>
+      <c r="KU25" s="2"/>
+      <c r="KV25" s="2"/>
+      <c r="KW25" s="2"/>
+      <c r="KX25" s="2"/>
+      <c r="KY25" s="2"/>
+      <c r="KZ25" s="2"/>
+      <c r="LA25" s="2"/>
+      <c r="LB25" s="2"/>
+      <c r="LC25" s="2"/>
+      <c r="LD25" s="2"/>
+      <c r="LE25" s="2"/>
+      <c r="LF25" s="2"/>
+      <c r="LG25" s="2"/>
+      <c r="LH25" s="2"/>
+      <c r="LI25" s="2"/>
+      <c r="LJ25" s="2"/>
+      <c r="LK25" s="2"/>
+      <c r="LL25" s="2"/>
+      <c r="LM25" s="2"/>
+      <c r="LN25" s="2"/>
+      <c r="LO25" s="2"/>
+      <c r="LP25" s="2"/>
+      <c r="LQ25" s="2"/>
+      <c r="LR25" s="2"/>
+      <c r="LS25" s="2"/>
+      <c r="LT25" s="2"/>
+      <c r="LU25" s="2"/>
+      <c r="LV25" s="2"/>
+      <c r="LW25" s="2"/>
+      <c r="LX25" s="2"/>
+      <c r="LY25" s="2"/>
+      <c r="LZ25" s="2"/>
+      <c r="MA25" s="2"/>
+      <c r="MB25" s="2"/>
+      <c r="MC25" s="2"/>
+      <c r="MD25" s="2"/>
+      <c r="ME25" s="2"/>
+      <c r="MF25" s="2"/>
+      <c r="MG25" s="2"/>
+      <c r="MH25" s="2"/>
+      <c r="MI25" s="2"/>
+      <c r="MJ25" s="2"/>
+      <c r="MK25" s="2"/>
+      <c r="ML25" s="2"/>
+      <c r="MM25" s="2"/>
+      <c r="MN25" s="2"/>
+      <c r="MO25" s="2"/>
+      <c r="MP25" s="2"/>
+      <c r="MQ25" s="2"/>
+      <c r="MR25" s="2"/>
+      <c r="MS25" s="2"/>
+      <c r="MT25" s="2"/>
+      <c r="MU25" s="2"/>
+      <c r="MV25" s="2"/>
+      <c r="MW25" s="2"/>
+      <c r="MX25" s="2"/>
+      <c r="MY25" s="2"/>
+      <c r="MZ25" s="2"/>
+      <c r="NA25" s="2"/>
+      <c r="NB25" s="2"/>
+      <c r="NC25" s="2"/>
+      <c r="ND25" s="2"/>
+      <c r="NE25" s="2"/>
+      <c r="NF25" s="2"/>
+      <c r="NG25" s="2"/>
+      <c r="NH25" s="2"/>
+      <c r="NI25" s="2"/>
+      <c r="NJ25" s="2"/>
+      <c r="NK25" s="2"/>
+      <c r="NL25" s="2"/>
+      <c r="NM25" s="2"/>
+      <c r="NN25" s="2"/>
+      <c r="NO25" s="2"/>
+      <c r="NP25" s="2"/>
+      <c r="NQ25" s="2"/>
+      <c r="NR25" s="2"/>
+      <c r="NS25" s="2"/>
+      <c r="NT25" s="2"/>
+      <c r="NU25" s="2"/>
+      <c r="NV25" s="2"/>
+      <c r="NW25" s="2"/>
+      <c r="NX25" s="2"/>
+      <c r="NY25" s="2"/>
+      <c r="NZ25" s="2"/>
+      <c r="OA25" s="2"/>
+      <c r="OB25" s="2"/>
+      <c r="OC25" s="2"/>
+      <c r="OD25" s="2"/>
+      <c r="OE25" s="2"/>
+      <c r="OF25" s="2"/>
+      <c r="OG25" s="2"/>
+      <c r="OH25" s="2"/>
+      <c r="OI25" s="2"/>
+      <c r="OJ25" s="2"/>
+      <c r="OK25" s="2"/>
+      <c r="OL25" s="2"/>
+      <c r="OM25" s="2"/>
+      <c r="ON25" s="2"/>
+      <c r="OO25" s="2"/>
+      <c r="OP25" s="2"/>
+      <c r="OQ25" s="2"/>
+      <c r="OR25" s="2"/>
+      <c r="OS25" s="2"/>
+      <c r="OT25" s="2"/>
+      <c r="OU25" s="2"/>
+      <c r="OV25" s="2"/>
+      <c r="OW25" s="2"/>
+      <c r="OX25" s="2"/>
+      <c r="OY25" s="2"/>
+      <c r="OZ25" s="2"/>
+      <c r="PA25" s="2"/>
+      <c r="PB25" s="2"/>
+      <c r="PC25" s="2"/>
+      <c r="PD25" s="2"/>
+      <c r="PE25" s="2"/>
+      <c r="PF25" s="2"/>
+      <c r="PG25" s="2"/>
+      <c r="PH25" s="2"/>
+      <c r="PI25" s="2"/>
+      <c r="PJ25" s="2"/>
+      <c r="PK25" s="2"/>
+      <c r="PL25" s="2"/>
+      <c r="PM25" s="2"/>
+      <c r="PN25" s="2"/>
+      <c r="PO25" s="2"/>
+      <c r="PP25" s="2"/>
+      <c r="PQ25" s="2"/>
+      <c r="PR25" s="2"/>
+      <c r="PS25" s="2"/>
+      <c r="PT25" s="2"/>
+      <c r="PU25" s="2"/>
+      <c r="PV25" s="2"/>
+      <c r="PW25" s="2"/>
+      <c r="PX25" s="2"/>
+      <c r="PY25" s="2"/>
+      <c r="PZ25" s="2"/>
+      <c r="QA25" s="2"/>
+      <c r="QB25" s="2"/>
+      <c r="QC25" s="2"/>
+      <c r="QD25" s="2"/>
+      <c r="QE25" s="2"/>
+      <c r="QF25" s="2"/>
+      <c r="QG25" s="2"/>
+      <c r="QH25" s="2"/>
+      <c r="QI25" s="2"/>
+      <c r="QJ25" s="2"/>
+      <c r="QK25" s="2"/>
+      <c r="QL25" s="2"/>
+      <c r="QM25" s="2"/>
+      <c r="QN25" s="2"/>
+      <c r="QO25" s="2"/>
+      <c r="QP25" s="2"/>
+      <c r="QQ25" s="2"/>
+      <c r="QR25" s="2"/>
+      <c r="QS25" s="2"/>
+      <c r="QT25" s="2"/>
+      <c r="QU25" s="2"/>
+      <c r="QV25" s="2"/>
+      <c r="QW25" s="2"/>
+      <c r="QX25" s="2"/>
+      <c r="QY25" s="2"/>
+      <c r="QZ25" s="2"/>
+      <c r="RA25" s="2"/>
+      <c r="RB25" s="2"/>
+      <c r="RC25" s="2"/>
+      <c r="RD25" s="2"/>
+      <c r="RE25" s="2"/>
+      <c r="RF25" s="2"/>
+      <c r="RG25" s="2"/>
+      <c r="RH25" s="2"/>
+      <c r="RI25" s="2"/>
+      <c r="RJ25" s="2"/>
+      <c r="RK25" s="2"/>
+      <c r="RL25" s="2"/>
+      <c r="RM25" s="2"/>
+      <c r="RN25" s="2"/>
+      <c r="RO25" s="2"/>
+      <c r="RP25" s="2"/>
+      <c r="RQ25" s="2"/>
+      <c r="RR25" s="2"/>
+      <c r="RS25" s="2"/>
+      <c r="RT25" s="2"/>
+      <c r="RU25" s="2"/>
+      <c r="RV25" s="2"/>
+      <c r="RW25" s="2"/>
+      <c r="RX25" s="2"/>
+      <c r="RY25" s="2"/>
+      <c r="RZ25" s="2"/>
+      <c r="SA25" s="2"/>
+      <c r="SB25" s="2"/>
+      <c r="SC25" s="2"/>
+      <c r="SD25" s="2"/>
+      <c r="SE25" s="2"/>
+      <c r="SF25" s="2"/>
+      <c r="SG25" s="2"/>
+      <c r="SH25" s="2"/>
+      <c r="SI25" s="2"/>
+      <c r="SJ25" s="2"/>
+      <c r="SK25" s="2"/>
+      <c r="SL25" s="2"/>
+      <c r="SM25" s="2"/>
+      <c r="SN25" s="2"/>
+      <c r="SO25" s="2"/>
+      <c r="SP25" s="2"/>
+      <c r="SQ25" s="2"/>
+      <c r="SR25" s="2"/>
+      <c r="SS25" s="2"/>
+      <c r="ST25" s="2"/>
+      <c r="SU25" s="2"/>
+      <c r="SV25" s="2"/>
+      <c r="SW25" s="2"/>
+      <c r="SX25" s="2"/>
+      <c r="SY25" s="2"/>
+      <c r="SZ25" s="2"/>
+      <c r="TA25" s="2"/>
+      <c r="TB25" s="2"/>
+      <c r="TC25" s="2"/>
+      <c r="TD25" s="2"/>
+      <c r="TE25" s="2"/>
+      <c r="TF25" s="2"/>
+      <c r="TG25" s="2"/>
+      <c r="TH25" s="2"/>
+      <c r="TI25" s="2"/>
+      <c r="TJ25" s="2"/>
+      <c r="TK25" s="2"/>
+      <c r="TL25" s="2"/>
+      <c r="TM25" s="2"/>
+      <c r="TN25" s="2"/>
+      <c r="TO25" s="2"/>
+      <c r="TP25" s="2"/>
+      <c r="TQ25" s="2"/>
+      <c r="TR25" s="2"/>
+      <c r="TS25" s="2"/>
+      <c r="TT25" s="2"/>
+      <c r="TU25" s="2"/>
+      <c r="TV25" s="2"/>
+      <c r="TW25" s="2"/>
+      <c r="TX25" s="2"/>
+      <c r="TY25" s="2"/>
+      <c r="TZ25" s="2"/>
+      <c r="UA25" s="2"/>
+      <c r="UB25" s="2"/>
+      <c r="UC25" s="2"/>
+      <c r="UD25" s="2"/>
+      <c r="UE25" s="2"/>
+      <c r="UF25" s="2"/>
+      <c r="UG25" s="2"/>
+      <c r="UH25" s="2"/>
+      <c r="UI25" s="2"/>
+      <c r="UJ25" s="2"/>
+      <c r="UK25" s="2"/>
+      <c r="UL25" s="2"/>
+      <c r="UM25" s="2"/>
+      <c r="UN25" s="2"/>
+      <c r="UO25" s="2"/>
+      <c r="UP25" s="2"/>
+      <c r="UQ25" s="2"/>
+      <c r="UR25" s="2"/>
+      <c r="US25" s="2"/>
+      <c r="UT25" s="2"/>
+      <c r="UU25" s="2"/>
+      <c r="UV25" s="2"/>
+      <c r="UW25" s="2"/>
+      <c r="UX25" s="2"/>
+      <c r="UY25" s="2"/>
+      <c r="UZ25" s="2"/>
+      <c r="VA25" s="2"/>
+      <c r="VB25" s="2"/>
+      <c r="VC25" s="2"/>
+      <c r="VD25" s="2"/>
+      <c r="VE25" s="2"/>
+      <c r="VF25" s="2"/>
+      <c r="VG25" s="2"/>
+      <c r="VH25" s="2"/>
+      <c r="VI25" s="2"/>
+      <c r="VJ25" s="2"/>
+      <c r="VK25" s="2"/>
+      <c r="VL25" s="2"/>
+      <c r="VM25" s="2"/>
+      <c r="VN25" s="2"/>
+      <c r="VO25" s="2"/>
+      <c r="VP25" s="2"/>
+      <c r="VQ25" s="2"/>
+      <c r="VR25" s="2"/>
+      <c r="VS25" s="2"/>
+      <c r="VT25" s="2"/>
+      <c r="VU25" s="2"/>
+      <c r="VV25" s="2"/>
+      <c r="VW25" s="2"/>
+      <c r="VX25" s="2"/>
+      <c r="VY25" s="2"/>
+      <c r="VZ25" s="2"/>
+      <c r="WA25" s="2"/>
+      <c r="WB25" s="2"/>
+      <c r="WC25" s="2"/>
+      <c r="WD25" s="2"/>
+      <c r="WE25" s="2"/>
+      <c r="WF25" s="2"/>
+      <c r="WG25" s="2"/>
+      <c r="WH25" s="2"/>
+      <c r="WI25" s="2"/>
+      <c r="WJ25" s="2"/>
+      <c r="WK25" s="2"/>
+      <c r="WL25" s="2"/>
+      <c r="WM25" s="2"/>
+      <c r="WN25" s="2"/>
+      <c r="WO25" s="2"/>
+      <c r="WP25" s="2"/>
+      <c r="WQ25" s="2"/>
+      <c r="WR25" s="2"/>
+      <c r="WS25" s="2"/>
+      <c r="WT25" s="2"/>
+      <c r="WU25" s="2"/>
+      <c r="WV25" s="2"/>
+      <c r="WW25" s="2"/>
+      <c r="WX25" s="2"/>
+      <c r="WY25" s="2"/>
+      <c r="WZ25" s="2"/>
+      <c r="XA25" s="2"/>
+      <c r="XB25" s="2"/>
+      <c r="XC25" s="2"/>
+      <c r="XD25" s="2"/>
+      <c r="XE25" s="2"/>
+      <c r="XF25" s="2"/>
+      <c r="XG25" s="2"/>
+      <c r="XH25" s="2"/>
+      <c r="XI25" s="2"/>
+      <c r="XJ25" s="2"/>
+      <c r="XK25" s="2"/>
+      <c r="XL25" s="2"/>
+      <c r="XM25" s="2"/>
+      <c r="XN25" s="2"/>
+      <c r="XO25" s="2"/>
+      <c r="XP25" s="2"/>
+      <c r="XQ25" s="2"/>
+      <c r="XR25" s="2"/>
+      <c r="XS25" s="2"/>
+      <c r="XT25" s="2"/>
+      <c r="XU25" s="2"/>
+      <c r="XV25" s="2"/>
+      <c r="XW25" s="2"/>
+      <c r="XX25" s="2"/>
+      <c r="XY25" s="2"/>
+      <c r="XZ25" s="2"/>
+      <c r="YA25" s="2"/>
+      <c r="YB25" s="2"/>
+      <c r="YC25" s="2"/>
+      <c r="YD25" s="2"/>
+      <c r="YE25" s="2"/>
+      <c r="YF25" s="2"/>
+      <c r="YG25" s="2"/>
+      <c r="YH25" s="2"/>
+      <c r="YI25" s="2"/>
+      <c r="YJ25" s="2"/>
+      <c r="YK25" s="2"/>
+      <c r="YL25" s="2"/>
+      <c r="YM25" s="2"/>
+      <c r="YN25" s="2"/>
+      <c r="YO25" s="2"/>
+      <c r="YP25" s="2"/>
+      <c r="YQ25" s="2"/>
+      <c r="YR25" s="2"/>
+      <c r="YS25" s="2"/>
+      <c r="YT25" s="2"/>
+      <c r="YU25" s="2"/>
+      <c r="YV25" s="2"/>
+      <c r="YW25" s="2"/>
+      <c r="YX25" s="2"/>
+      <c r="YY25" s="2"/>
+      <c r="YZ25" s="2"/>
+      <c r="ZA25" s="2"/>
+      <c r="ZB25" s="2"/>
+      <c r="ZC25" s="2"/>
+      <c r="ZD25" s="2"/>
+      <c r="ZE25" s="2"/>
+      <c r="ZF25" s="2"/>
+      <c r="ZG25" s="2"/>
+      <c r="ZH25" s="2"/>
+      <c r="ZI25" s="2"/>
+      <c r="ZJ25" s="2"/>
+      <c r="ZK25" s="2"/>
+      <c r="ZL25" s="2"/>
+      <c r="ZM25" s="2"/>
+      <c r="ZN25" s="2"/>
+      <c r="ZO25" s="2"/>
+      <c r="ZP25" s="2"/>
+      <c r="ZQ25" s="2"/>
+      <c r="ZR25" s="2"/>
+      <c r="ZS25" s="2"/>
+      <c r="ZT25" s="2"/>
+      <c r="ZU25" s="2"/>
+      <c r="ZV25" s="2"/>
+      <c r="ZW25" s="2"/>
+      <c r="ZX25" s="2"/>
+      <c r="ZY25" s="2"/>
+      <c r="ZZ25" s="2"/>
+      <c r="AAA25" s="2"/>
+      <c r="AAB25" s="2"/>
+      <c r="AAC25" s="2"/>
+      <c r="AAD25" s="2"/>
+      <c r="AAE25" s="2"/>
+      <c r="AAF25" s="2"/>
+      <c r="AAG25" s="2"/>
+      <c r="AAH25" s="2"/>
+      <c r="AAI25" s="2"/>
+      <c r="AAJ25" s="2"/>
+      <c r="AAK25" s="2"/>
+      <c r="AAL25" s="2"/>
+      <c r="AAM25" s="2"/>
+      <c r="AAN25" s="2"/>
+      <c r="AAO25" s="2"/>
+      <c r="AAP25" s="2"/>
+      <c r="AAQ25" s="2"/>
+      <c r="AAR25" s="2"/>
+      <c r="AAS25" s="2"/>
+      <c r="AAT25" s="2"/>
+      <c r="AAU25" s="2"/>
+      <c r="AAV25" s="2"/>
+      <c r="AAW25" s="2"/>
+      <c r="AAX25" s="2"/>
+      <c r="AAY25" s="2"/>
+      <c r="AAZ25" s="2"/>
+      <c r="ABA25" s="2"/>
+      <c r="ABB25" s="2"/>
+      <c r="ABC25" s="2"/>
+      <c r="ABD25" s="2"/>
+      <c r="ABE25" s="2"/>
+      <c r="ABF25" s="2"/>
+      <c r="ABG25" s="2"/>
+      <c r="ABH25" s="2"/>
+      <c r="ABI25" s="2"/>
+      <c r="ABJ25" s="2"/>
+      <c r="ABK25" s="2"/>
+      <c r="ABL25" s="2"/>
+      <c r="ABM25" s="2"/>
+      <c r="ABN25" s="2"/>
+      <c r="ABO25" s="2"/>
+      <c r="ABP25" s="2"/>
+      <c r="ABQ25" s="2"/>
+      <c r="ABR25" s="2"/>
+      <c r="ABS25" s="2"/>
+      <c r="ABT25" s="2"/>
+      <c r="ABU25" s="2"/>
+      <c r="ABV25" s="2"/>
+      <c r="ABW25" s="2"/>
+      <c r="ABX25" s="2"/>
+      <c r="ABY25" s="2"/>
+      <c r="ABZ25" s="2"/>
+      <c r="ACA25" s="2"/>
+      <c r="ACB25" s="2"/>
+      <c r="ACC25" s="2"/>
+      <c r="ACD25" s="2"/>
+      <c r="ACE25" s="2"/>
+      <c r="ACF25" s="2"/>
+      <c r="ACG25" s="2"/>
+      <c r="ACH25" s="2"/>
+      <c r="ACI25" s="2"/>
+      <c r="ACJ25" s="2"/>
+      <c r="ACK25" s="2"/>
+      <c r="ACL25" s="2"/>
+      <c r="ACM25" s="2"/>
+      <c r="ACN25" s="2"/>
+      <c r="ACO25" s="2"/>
+      <c r="ACP25" s="2"/>
+      <c r="ACQ25" s="2"/>
+      <c r="ACR25" s="2"/>
+      <c r="ACS25" s="2"/>
+      <c r="ACT25" s="2"/>
+      <c r="ACU25" s="2"/>
+      <c r="ACV25" s="2"/>
+      <c r="ACW25" s="2"/>
+      <c r="ACX25" s="2"/>
+      <c r="ACY25" s="2"/>
+      <c r="ACZ25" s="2"/>
+      <c r="ADA25" s="2"/>
+      <c r="ADB25" s="2"/>
+      <c r="ADC25" s="2"/>
+      <c r="ADD25" s="2"/>
+      <c r="ADE25" s="2"/>
+      <c r="ADF25" s="2"/>
+      <c r="ADG25" s="2"/>
+      <c r="ADH25" s="2"/>
+      <c r="ADI25" s="2"/>
+      <c r="ADJ25" s="2"/>
+      <c r="ADK25" s="2"/>
+      <c r="ADL25" s="2"/>
+      <c r="ADM25" s="2"/>
+      <c r="ADN25" s="2"/>
+      <c r="ADO25" s="2"/>
+      <c r="ADP25" s="2"/>
+      <c r="ADQ25" s="2"/>
+      <c r="ADR25" s="2"/>
+      <c r="ADS25" s="2"/>
+      <c r="ADT25" s="2"/>
+      <c r="ADU25" s="2"/>
+      <c r="ADV25" s="2"/>
+      <c r="ADW25" s="2"/>
+      <c r="ADX25" s="2"/>
+      <c r="ADY25" s="2"/>
+      <c r="ADZ25" s="2"/>
+      <c r="AEA25" s="2"/>
+      <c r="AEB25" s="2"/>
+      <c r="AEC25" s="2"/>
+      <c r="AED25" s="2"/>
+      <c r="AEE25" s="2"/>
+      <c r="AEF25" s="2"/>
+      <c r="AEG25" s="2"/>
+      <c r="AEH25" s="2"/>
+      <c r="AEI25" s="2"/>
+      <c r="AEJ25" s="2"/>
+      <c r="AEK25" s="2"/>
+      <c r="AEL25" s="2"/>
+      <c r="AEM25" s="2"/>
+      <c r="AEN25" s="2"/>
+      <c r="AEO25" s="2"/>
+      <c r="AEP25" s="2"/>
+      <c r="AEQ25" s="2"/>
+      <c r="AER25" s="2"/>
+      <c r="AES25" s="2"/>
+      <c r="AET25" s="2"/>
+      <c r="AEU25" s="2"/>
+      <c r="AEV25" s="2"/>
+      <c r="AEW25" s="2"/>
+      <c r="AEX25" s="2"/>
+      <c r="AEY25" s="2"/>
+      <c r="AEZ25" s="2"/>
+      <c r="AFA25" s="2"/>
+      <c r="AFB25" s="2"/>
+      <c r="AFC25" s="2"/>
+      <c r="AFD25" s="2"/>
+      <c r="AFE25" s="2"/>
+      <c r="AFF25" s="2"/>
+      <c r="AFG25" s="2"/>
+      <c r="AFH25" s="2"/>
+      <c r="AFI25" s="2"/>
+      <c r="AFJ25" s="2"/>
+      <c r="AFK25" s="2"/>
+      <c r="AFL25" s="2"/>
+      <c r="AFM25" s="2"/>
+      <c r="AFN25" s="2"/>
+      <c r="AFO25" s="2"/>
+      <c r="AFP25" s="2"/>
+      <c r="AFQ25" s="2"/>
+      <c r="AFR25" s="2"/>
+      <c r="AFS25" s="2"/>
+      <c r="AFT25" s="2"/>
+      <c r="AFU25" s="2"/>
+      <c r="AFV25" s="2"/>
+      <c r="AFW25" s="2"/>
+      <c r="AFX25" s="2"/>
+      <c r="AFY25" s="2"/>
+      <c r="AFZ25" s="2"/>
+      <c r="AGA25" s="2"/>
+      <c r="AGB25" s="2"/>
+      <c r="AGC25" s="2"/>
+      <c r="AGD25" s="2"/>
+      <c r="AGE25" s="2"/>
+      <c r="AGF25" s="2"/>
+      <c r="AGG25" s="2"/>
+      <c r="AGH25" s="2"/>
+      <c r="AGI25" s="2"/>
+      <c r="AGJ25" s="2"/>
+      <c r="AGK25" s="2"/>
+      <c r="AGL25" s="2"/>
+      <c r="AGM25" s="2"/>
+      <c r="AGN25" s="2"/>
+      <c r="AGO25" s="2"/>
+      <c r="AGP25" s="2"/>
+      <c r="AGQ25" s="2"/>
+      <c r="AGR25" s="2"/>
+      <c r="AGS25" s="2"/>
+      <c r="AGT25" s="2"/>
+      <c r="AGU25" s="2"/>
+      <c r="AGV25" s="2"/>
+      <c r="AGW25" s="2"/>
+      <c r="AGX25" s="2"/>
+      <c r="AGY25" s="2"/>
+      <c r="AGZ25" s="2"/>
+      <c r="AHA25" s="2"/>
+      <c r="AHB25" s="2"/>
+      <c r="AHC25" s="2"/>
+      <c r="AHD25" s="2"/>
+      <c r="AHE25" s="2"/>
+      <c r="AHF25" s="2"/>
+      <c r="AHG25" s="2"/>
+      <c r="AHH25" s="2"/>
+      <c r="AHI25" s="2"/>
+      <c r="AHJ25" s="2"/>
+      <c r="AHK25" s="2"/>
+      <c r="AHL25" s="2"/>
+      <c r="AHM25" s="2"/>
+      <c r="AHN25" s="2"/>
+      <c r="AHO25" s="2"/>
+      <c r="AHP25" s="2"/>
+      <c r="AHQ25" s="2"/>
+      <c r="AHR25" s="2"/>
+      <c r="AHS25" s="2"/>
+      <c r="AHT25" s="2"/>
+      <c r="AHU25" s="2"/>
+      <c r="AHV25" s="2"/>
+      <c r="AHW25" s="2"/>
+      <c r="AHX25" s="2"/>
+      <c r="AHY25" s="2"/>
+      <c r="AHZ25" s="2"/>
+      <c r="AIA25" s="2"/>
+      <c r="AIB25" s="2"/>
+      <c r="AIC25" s="2"/>
+      <c r="AID25" s="2"/>
+      <c r="AIE25" s="2"/>
+      <c r="AIF25" s="2"/>
+      <c r="AIG25" s="2"/>
+      <c r="AIH25" s="2"/>
+      <c r="AII25" s="2"/>
+      <c r="AIJ25" s="2"/>
+      <c r="AIK25" s="2"/>
+      <c r="AIL25" s="2"/>
+      <c r="AIM25" s="2"/>
+      <c r="AIN25" s="2"/>
+      <c r="AIO25" s="2"/>
+      <c r="AIP25" s="2"/>
+      <c r="AIQ25" s="2"/>
+      <c r="AIR25" s="2"/>
+      <c r="AIS25" s="2"/>
+      <c r="AIT25" s="2"/>
+      <c r="AIU25" s="2"/>
+      <c r="AIV25" s="2"/>
+      <c r="AIW25" s="2"/>
+      <c r="AIX25" s="2"/>
+      <c r="AIY25" s="2"/>
+      <c r="AIZ25" s="2"/>
+      <c r="AJA25" s="2"/>
+      <c r="AJB25" s="2"/>
+      <c r="AJC25" s="2"/>
+      <c r="AJD25" s="2"/>
+      <c r="AJE25" s="2"/>
+      <c r="AJF25" s="2"/>
+      <c r="AJG25" s="2"/>
+      <c r="AJH25" s="2"/>
+      <c r="AJI25" s="2"/>
+      <c r="AJJ25" s="2"/>
+      <c r="AJK25" s="2"/>
+      <c r="AJL25" s="2"/>
+      <c r="AJM25" s="2"/>
+      <c r="AJN25" s="2"/>
+      <c r="AJO25" s="2"/>
+      <c r="AJP25" s="2"/>
+      <c r="AJQ25" s="2"/>
+      <c r="AJR25" s="2"/>
+      <c r="AJS25" s="2"/>
+      <c r="AJT25" s="2"/>
+      <c r="AJU25" s="2"/>
+      <c r="AJV25" s="2"/>
+      <c r="AJW25" s="2"/>
+      <c r="AJX25" s="2"/>
+      <c r="AJY25" s="2"/>
+      <c r="AJZ25" s="2"/>
+      <c r="AKA25" s="2"/>
+      <c r="AKB25" s="2"/>
+      <c r="AKC25" s="2"/>
+      <c r="AKD25" s="2"/>
+      <c r="AKE25" s="2"/>
+      <c r="AKF25" s="2"/>
+      <c r="AKG25" s="2"/>
+      <c r="AKH25" s="2"/>
+      <c r="AKI25" s="2"/>
+      <c r="AKJ25" s="2"/>
+      <c r="AKK25" s="2"/>
+      <c r="AKL25" s="2"/>
+      <c r="AKM25" s="2"/>
+      <c r="AKN25" s="2"/>
+      <c r="AKO25" s="2"/>
+      <c r="AKP25" s="2"/>
+      <c r="AKQ25" s="2"/>
+      <c r="AKR25" s="2"/>
+      <c r="AKS25" s="2"/>
+      <c r="AKT25" s="2"/>
+      <c r="AKU25" s="2"/>
+      <c r="AKV25" s="2"/>
+      <c r="AKW25" s="2"/>
+      <c r="AKX25" s="2"/>
+      <c r="AKY25" s="2"/>
+      <c r="AKZ25" s="2"/>
+      <c r="ALA25" s="2"/>
+      <c r="ALB25" s="2"/>
+      <c r="ALC25" s="2"/>
+      <c r="ALD25" s="2"/>
+      <c r="ALE25" s="2"/>
+      <c r="ALF25" s="2"/>
+      <c r="ALG25" s="2"/>
+      <c r="ALH25" s="2"/>
+      <c r="ALI25" s="2"/>
+      <c r="ALJ25" s="2"/>
+      <c r="ALK25" s="2"/>
+      <c r="ALL25" s="2"/>
+      <c r="ALM25" s="2"/>
+      <c r="ALN25" s="2"/>
+      <c r="ALO25" s="2"/>
+      <c r="ALP25" s="2"/>
+      <c r="ALQ25" s="2"/>
+      <c r="ALR25" s="2"/>
+      <c r="ALS25" s="2"/>
+      <c r="ALT25" s="2"/>
+      <c r="ALU25" s="2"/>
+      <c r="ALV25" s="2"/>
+      <c r="ALW25" s="2"/>
+      <c r="ALX25" s="2"/>
+      <c r="ALY25" s="2"/>
+      <c r="ALZ25" s="2"/>
+      <c r="AMA25" s="2"/>
+      <c r="AMB25" s="2"/>
+      <c r="AMC25" s="2"/>
+      <c r="AMD25" s="2"/>
+      <c r="AME25" s="2"/>
+      <c r="AMF25" s="2"/>
+      <c r="AMG25" s="2"/>
+      <c r="AMH25" s="2"/>
+      <c r="AMI25" s="2"/>
+      <c r="AMJ25" s="2"/>
+      <c r="AMK25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -5092,588 +7510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C51"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="1025" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1">
-        <v>31684002</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1">
-        <v>60881009</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1">
-        <v>348125006</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1">
-        <v>414428000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1">
-        <v>51758009</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1">
-        <v>73572009</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1">
-        <v>425179007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1">
-        <v>422107003</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1">
-        <v>96191003</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="1">
-        <v>400786000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6985007</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="1">
-        <v>414984009</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="1">
-        <v>39608003</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1">
-        <v>54544005</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1">
-        <v>96183007</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1">
-        <v>40648001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1">
-        <v>85990009</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="1">
-        <v>57811004</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="1">
-        <v>329290002</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="1">
-        <v>415159003</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="1">
-        <v>108379008</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="1">
-        <v>442004000</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1">
-        <v>108507005</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="1">
-        <v>413396001</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="1">
-        <v>7947003</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="1">
-        <v>412569008</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="1">
-        <v>319357003</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="1">
-        <v>400487008</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="1">
-        <v>400819008</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="1">
-        <v>424102008</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="1">
-        <v>412556009</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="1">
-        <v>90332006</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="1">
-        <v>423037001</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="1">
-        <v>350309002</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="1">
-        <v>423936008</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="1">
-        <v>423801005</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="1">
-        <v>400658001</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="1">
-        <v>427164001</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="1">
-        <v>412499001</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="1">
-        <v>398785002</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AMK11"/>
   <sheetViews>
@@ -5813,7 +7650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -5900,7 +7737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
@@ -5976,7 +7813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AMK26"/>
   <sheetViews>
@@ -6281,11 +8118,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:AMK13"/>
+  <dimension ref="A1:AMK12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6417,23 +8256,12 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>571</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6443,7 +8271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
@@ -6472,10 +8300,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -6483,10 +8311,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -6494,10 +8322,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -6505,10 +8333,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -6516,10 +8344,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -6527,10 +8355,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -6538,10 +8366,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -6549,10 +8377,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -6560,10 +8388,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -6571,10 +8399,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -6582,10 +8410,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
@@ -6593,10 +8421,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
@@ -6604,10 +8432,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -6615,10 +8443,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -6626,10 +8454,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -6637,10 +8465,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -6648,10 +8476,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -6659,10 +8487,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -6674,7 +8502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -6717,7 +8545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
@@ -6745,7 +8573,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B2" s="4">
         <v>77731008</v>
@@ -6756,10 +8584,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -6767,7 +8595,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B4" s="4">
         <v>350108002</v>
@@ -6778,10 +8606,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -6789,7 +8617,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B6" s="4">
         <v>330769006</v>
@@ -6800,7 +8628,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B7" s="4">
         <v>424378003</v>
@@ -6811,10 +8639,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -6822,10 +8650,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -6833,10 +8661,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -6844,7 +8672,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B11" s="4">
         <v>330790003</v>
@@ -6855,10 +8683,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -6866,10 +8694,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -6877,10 +8705,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -6888,10 +8716,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -6899,10 +8727,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -6910,10 +8738,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -6921,10 +8749,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
@@ -6932,10 +8760,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -6943,10 +8771,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -6954,10 +8782,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -6965,10 +8793,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -6976,10 +8804,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -6987,10 +8815,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -6998,10 +8826,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -7009,10 +8837,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -7020,10 +8848,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
@@ -7031,10 +8859,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
@@ -7042,10 +8870,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -7053,10 +8881,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -7064,10 +8892,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -7075,10 +8903,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -7086,10 +8914,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -7097,10 +8925,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -7108,10 +8936,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
@@ -7119,10 +8947,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -7130,10 +8958,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -7141,10 +8969,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -7152,10 +8980,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -7163,10 +8991,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -7174,10 +9002,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -7192,7 +9020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:AMK4"/>
   <sheetViews>
@@ -7218,10 +9046,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -7229,10 +9057,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -7240,10 +9068,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -7255,7 +9083,365 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="1025" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>31684002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1">
+        <v>60881009</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1">
+        <v>348125006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1">
+        <v>414428000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1">
+        <v>51758009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1">
+        <v>73572009</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1">
+        <v>425179007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>422107003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>96191003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1">
+        <v>400786000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6985007</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1">
+        <v>414984009</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1">
+        <v>39608003</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1">
+        <v>54544005</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1">
+        <v>96183007</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40648001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1">
+        <v>57811004</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1">
+        <v>329290002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1">
+        <v>415159003</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1">
+        <v>108379008</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1">
+        <v>442004000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1">
+        <v>108507005</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1">
+        <v>413396001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>785</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
@@ -7283,10 +9469,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
@@ -7294,10 +9480,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -7309,83 +9495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="1">
-        <v>96316004</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1">
-        <v>422170002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1">
-        <v>429833005</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
@@ -7413,7 +9523,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B2" s="2">
         <v>108556006</v>
@@ -7424,10 +9534,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -7435,10 +9545,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -7446,10 +9556,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -7457,10 +9567,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -7468,10 +9578,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -7479,10 +9589,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -7490,10 +9600,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -7505,12 +9615,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7532,7 +9642,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -7540,7 +9650,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -7548,7 +9658,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -7556,7 +9666,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -7564,7 +9674,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -7572,7 +9682,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -7580,7 +9690,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -7588,7 +9698,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -7596,7 +9706,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -7604,7 +9714,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -7612,7 +9722,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -7620,7 +9730,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -7628,7 +9738,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -7636,7 +9746,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -7644,7 +9754,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -7660,41 +9770,50 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>735</v>
-      </c>
+      <c r="A19" t="s">
+        <v>785</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>785</v>
+      <c r="A20" s="11" t="s">
+        <v>733</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>772</v>
+      <c r="A21" t="s">
+        <v>783</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>786</v>
+      <c r="A22" s="11" t="s">
+        <v>770</v>
       </c>
       <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>784</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7704,7 +9823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7747,7 +9866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7775,10 +9894,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -7790,7 +9909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -7856,7 +9975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7885,10 +10004,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -7900,7 +10019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7939,7 +10058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -7993,7 +10112,7 @@
         <v>401</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -8005,7 +10124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -8045,10 +10164,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -8056,10 +10175,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -8067,10 +10186,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -8078,10 +10197,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8089,10 +10208,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -8100,10 +10219,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -8111,10 +10230,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -8126,7 +10245,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1">
+        <v>96316004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1">
+        <v>422170002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1">
+        <v>429833005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -8153,7 +10348,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -8165,226 +10360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
-    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="2">
-        <v>73986003</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -8416,7 +10392,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8424,10 +10400,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -8438,7 +10414,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -8449,7 +10425,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -8468,10 +10444,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -8482,7 +10458,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -8490,10 +10466,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -8504,7 +10480,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -8526,7 +10502,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -8537,7 +10513,7 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -8545,10 +10521,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -8556,10 +10532,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -8567,10 +10543,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -8578,10 +10554,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -8614,7 +10590,7 @@
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -8622,10 +10598,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -8633,10 +10609,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -8648,7 +10624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -8680,7 +10656,7 @@
         <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8691,7 +10667,7 @@
         <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -8702,7 +10678,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -8713,7 +10689,7 @@
         <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -8724,7 +10700,7 @@
         <v>137</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -8735,7 +10711,7 @@
         <v>138</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -8747,7 +10723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -8776,10 +10752,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8787,10 +10763,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -8802,7 +10778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -8829,7 +10805,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -8841,7 +10817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -8870,10 +10846,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8885,7 +10861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -8917,7 +10893,7 @@
         <v>206</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -8930,6 +10906,225 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
+    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2">
+        <v>73986003</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
@@ -9696,7 +11891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -9733,7 +11928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -9974,7 +12169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
@@ -10518,91 +12713,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMK6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
-    <col min="3" max="1025" width="9.140625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/protected/data/dmd_data/Drug-Type-Mappings.xlsx
+++ b/protected/data/dmd_data/Drug-Type-Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c58bff20204d3898/Documents/docker-compose/MM/dmd_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_611EE3B2B6AEC4E91FAFF6C24585CFD48B53695D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1884293B-2C79-480C-ACA6-99C33C7B34BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB4C39-CB1B-4738-8345-8352C39E7565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="750" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15330" tabRatio="750" firstSheet="19" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-opioid Analgesic" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="788">
   <si>
     <t>Term</t>
   </si>
@@ -2428,6 +2428,12 @@
   </si>
   <si>
     <t>Simple Analgesics</t>
+  </si>
+  <si>
+    <t>Dexibuprofen</t>
+  </si>
+  <si>
+    <t>418027007</t>
   </si>
 </sst>
 </file>
@@ -8120,10 +8126,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:AMK12"/>
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8262,6 +8268,17 @@
         <v>570</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9087,7 +9104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/protected/data/dmd_data/Drug-Type-Mappings.xlsx
+++ b/protected/data/dmd_data/Drug-Type-Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB4C39-CB1B-4738-8345-8352C39E7565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5DDBFA-26F1-42B8-A601-8347BF664499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15330" tabRatio="750" firstSheet="19" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="750" firstSheet="30" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-opioid Analgesic" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="790">
   <si>
     <t>Term</t>
   </si>
@@ -2434,6 +2434,12 @@
   </si>
   <si>
     <t>418027007</t>
+  </si>
+  <si>
+    <t>89519005</t>
+  </si>
+  <si>
+    <t>96067005</t>
   </si>
 </sst>
 </file>
@@ -8128,7 +8134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -10643,10 +10649,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10731,6 +10737,28 @@
         <v>765</v>
       </c>
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>

--- a/protected/data/dmd_data/Drug-Type-Mappings.xlsx
+++ b/protected/data/dmd_data/Drug-Type-Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c58bff20204d3898/Documents/docker-compose/MM/dmd_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5DDBFA-26F1-42B8-A601-8347BF664499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4B5DDBFA-26F1-42B8-A601-8347BF664499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{543861B1-4BEF-411C-A1DF-0339F69E8756}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="750" firstSheet="30" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15435" tabRatio="750" firstSheet="37" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-opioid Analgesic" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="809">
   <si>
     <t>Term</t>
   </si>
@@ -2440,6 +2440,63 @@
   </si>
   <si>
     <t>96067005</t>
+  </si>
+  <si>
+    <t>Chlortetracycline</t>
+  </si>
+  <si>
+    <t>57538001</t>
+  </si>
+  <si>
+    <t>Clobetasone + Oxytetracycline + Nystatin</t>
+  </si>
+  <si>
+    <t>35308211000001105</t>
+  </si>
+  <si>
+    <t>Demeclocycline</t>
+  </si>
+  <si>
+    <t>5737008</t>
+  </si>
+  <si>
+    <t>10504007</t>
+  </si>
+  <si>
+    <t>Lymecycline</t>
+  </si>
+  <si>
+    <t>96077007</t>
+  </si>
+  <si>
+    <t>Minocycline</t>
+  </si>
+  <si>
+    <t>13512003</t>
+  </si>
+  <si>
+    <t>Oxytetracycline</t>
+  </si>
+  <si>
+    <t>22969001</t>
+  </si>
+  <si>
+    <t>Oxytetracycline + Hydrocortisone</t>
+  </si>
+  <si>
+    <t>346509004</t>
+  </si>
+  <si>
+    <t>Tigecycline</t>
+  </si>
+  <si>
+    <t>418631002</t>
+  </si>
+  <si>
+    <t>Triamcinolone + Chlortetracycline</t>
+  </si>
+  <si>
+    <t>346689008</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2523,6 +2580,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10651,7 +10709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -10908,10 +10966,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10926,7 +10984,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -10935,12 +10993,122 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>797</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>799</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>801</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>805</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>807</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/protected/data/dmd_data/Drug-Type-Mappings.xlsx
+++ b/protected/data/dmd_data/Drug-Type-Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c58bff20204d3898/Documents/docker-compose/MM/dmd_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB4C39-CB1B-4738-8345-8352C39E7565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4B5DDBFA-26F1-42B8-A601-8347BF664499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{543861B1-4BEF-411C-A1DF-0339F69E8756}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15330" tabRatio="750" firstSheet="19" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15435" tabRatio="750" firstSheet="37" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-opioid Analgesic" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="809">
   <si>
     <t>Term</t>
   </si>
@@ -2434,6 +2434,69 @@
   </si>
   <si>
     <t>418027007</t>
+  </si>
+  <si>
+    <t>89519005</t>
+  </si>
+  <si>
+    <t>96067005</t>
+  </si>
+  <si>
+    <t>Chlortetracycline</t>
+  </si>
+  <si>
+    <t>57538001</t>
+  </si>
+  <si>
+    <t>Clobetasone + Oxytetracycline + Nystatin</t>
+  </si>
+  <si>
+    <t>35308211000001105</t>
+  </si>
+  <si>
+    <t>Demeclocycline</t>
+  </si>
+  <si>
+    <t>5737008</t>
+  </si>
+  <si>
+    <t>10504007</t>
+  </si>
+  <si>
+    <t>Lymecycline</t>
+  </si>
+  <si>
+    <t>96077007</t>
+  </si>
+  <si>
+    <t>Minocycline</t>
+  </si>
+  <si>
+    <t>13512003</t>
+  </si>
+  <si>
+    <t>Oxytetracycline</t>
+  </si>
+  <si>
+    <t>22969001</t>
+  </si>
+  <si>
+    <t>Oxytetracycline + Hydrocortisone</t>
+  </si>
+  <si>
+    <t>346509004</t>
+  </si>
+  <si>
+    <t>Tigecycline</t>
+  </si>
+  <si>
+    <t>418631002</t>
+  </si>
+  <si>
+    <t>Triamcinolone + Chlortetracycline</t>
+  </si>
+  <si>
+    <t>346689008</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2517,6 +2580,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8128,7 +8192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -10643,10 +10707,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10731,6 +10795,28 @@
         <v>765</v>
       </c>
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10880,10 +10966,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10898,7 +10984,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -10907,12 +10993,122 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>797</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>799</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>801</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>805</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>807</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
